--- a/TempTemplate.xlsx
+++ b/TempTemplate.xlsx
@@ -8,18 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bu\Documents\raspberry-pi-MCP9808-email-logger\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CAD3EC9-DD27-458E-BE0E-9C8B8B641CD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F9D57EE-9C78-4DA9-A400-7501FB1327FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{84071BE4-31F6-4890-94C9-3F2408C79C0A}"/>
   </bookViews>
   <sheets>
     <sheet name="Temp" sheetId="2" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2257,2329 +2253,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Temp"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="D1" t="str">
-            <v>Teplota</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="C2">
-            <v>3.472222222222222E-3</v>
-          </cell>
-          <cell r="D2">
-            <v>21.94</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="C3">
-            <v>6.9444444444444441E-3</v>
-          </cell>
-          <cell r="D3">
-            <v>21.94</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="C4">
-            <v>2.7777777777777776E-2</v>
-          </cell>
-          <cell r="D4">
-            <v>22.25</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="C5">
-            <v>3.125E-2</v>
-          </cell>
-          <cell r="D5">
-            <v>22.31</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="C6">
-            <v>3.4722222222222224E-2</v>
-          </cell>
-          <cell r="D6">
-            <v>22.5</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="C7">
-            <v>4.1666666666666664E-2</v>
-          </cell>
-          <cell r="D7">
-            <v>22.12</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="C8">
-            <v>4.5138888888888888E-2</v>
-          </cell>
-          <cell r="D8">
-            <v>22</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="C9">
-            <v>4.8611111111111112E-2</v>
-          </cell>
-          <cell r="D9">
-            <v>21.94</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="C10">
-            <v>4.8611111111111112E-2</v>
-          </cell>
-          <cell r="D10">
-            <v>21.94</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="C11">
-            <v>5.2083333333333336E-2</v>
-          </cell>
-          <cell r="D11">
-            <v>21.88</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="C12">
-            <v>5.5555555555555552E-2</v>
-          </cell>
-          <cell r="D12">
-            <v>21.88</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="C13">
-            <v>5.9027777777777783E-2</v>
-          </cell>
-          <cell r="D13">
-            <v>21.88</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="C14">
-            <v>6.25E-2</v>
-          </cell>
-          <cell r="D14">
-            <v>21.75</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="C15">
-            <v>6.5972222222222224E-2</v>
-          </cell>
-          <cell r="D15">
-            <v>21.69</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="C16">
-            <v>6.9444444444444434E-2</v>
-          </cell>
-          <cell r="D16">
-            <v>21.75</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="C17">
-            <v>7.2916666666666671E-2</v>
-          </cell>
-          <cell r="D17">
-            <v>21.69</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="C18">
-            <v>7.6388888888888895E-2</v>
-          </cell>
-          <cell r="D18">
-            <v>21.62</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="C19">
-            <v>7.9861111111111105E-2</v>
-          </cell>
-          <cell r="D19">
-            <v>21.56</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="C20">
-            <v>8.6805555555555566E-2</v>
-          </cell>
-          <cell r="D20">
-            <v>21.5</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="C21">
-            <v>9.375E-2</v>
-          </cell>
-          <cell r="D21">
-            <v>21.44</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="C22">
-            <v>9.7222222222222224E-2</v>
-          </cell>
-          <cell r="D22">
-            <v>21.5</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="C23">
-            <v>0.10069444444444443</v>
-          </cell>
-          <cell r="D23">
-            <v>21.38</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="C24">
-            <v>0.10416666666666667</v>
-          </cell>
-          <cell r="D24">
-            <v>21.31</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="C25">
-            <v>0.1076388888888889</v>
-          </cell>
-          <cell r="D25">
-            <v>21.31</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="C26">
-            <v>0.1111111111111111</v>
-          </cell>
-          <cell r="D26">
-            <v>21.31</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="C27">
-            <v>0.11458333333333333</v>
-          </cell>
-          <cell r="D27">
-            <v>21.31</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="C28">
-            <v>0.11805555555555557</v>
-          </cell>
-          <cell r="D28">
-            <v>21.25</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="C29">
-            <v>0.12152777777777778</v>
-          </cell>
-          <cell r="D29">
-            <v>21.25</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="C30">
-            <v>0.125</v>
-          </cell>
-          <cell r="D30">
-            <v>21.25</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="C31">
-            <v>0.13194444444444445</v>
-          </cell>
-          <cell r="D31">
-            <v>21.31</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="C32">
-            <v>0.1388888888888889</v>
-          </cell>
-          <cell r="D32">
-            <v>21.31</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="C33">
-            <v>0.1423611111111111</v>
-          </cell>
-          <cell r="D33">
-            <v>21.31</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="C34">
-            <v>0.14583333333333334</v>
-          </cell>
-          <cell r="D34">
-            <v>21.31</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="C35">
-            <v>0.14930555555555555</v>
-          </cell>
-          <cell r="D35">
-            <v>21.31</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="C36">
-            <v>0.15277777777777776</v>
-          </cell>
-          <cell r="D36">
-            <v>21.31</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="C37">
-            <v>0.15625</v>
-          </cell>
-          <cell r="D37">
-            <v>21.31</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="C38">
-            <v>0.15972222222222224</v>
-          </cell>
-          <cell r="D38">
-            <v>21.25</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="C39">
-            <v>0.16319444444444445</v>
-          </cell>
-          <cell r="D39">
-            <v>21.25</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="C40">
-            <v>0.16666666666666666</v>
-          </cell>
-          <cell r="D40">
-            <v>21.31</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="C41">
-            <v>0.17013888888888887</v>
-          </cell>
-          <cell r="D41">
-            <v>21.25</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="C42">
-            <v>0.17708333333333334</v>
-          </cell>
-          <cell r="D42">
-            <v>21.25</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="C43">
-            <v>0.18402777777777779</v>
-          </cell>
-          <cell r="D43">
-            <v>21.25</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="C44">
-            <v>0.1875</v>
-          </cell>
-          <cell r="D44">
-            <v>21.25</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="C45">
-            <v>0.19097222222222221</v>
-          </cell>
-          <cell r="D45">
-            <v>21.25</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="C46">
-            <v>0.19444444444444445</v>
-          </cell>
-          <cell r="D46">
-            <v>21.25</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="C47">
-            <v>0.19791666666666666</v>
-          </cell>
-          <cell r="D47">
-            <v>21.25</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="C48">
-            <v>0.20138888888888887</v>
-          </cell>
-          <cell r="D48">
-            <v>21.25</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="C49">
-            <v>0.20486111111111113</v>
-          </cell>
-          <cell r="D49">
-            <v>21.25</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="C50">
-            <v>0.20833333333333334</v>
-          </cell>
-          <cell r="D50">
-            <v>21.25</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="C51">
-            <v>0.21180555555555555</v>
-          </cell>
-          <cell r="D51">
-            <v>21.25</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="C52">
-            <v>0.21527777777777779</v>
-          </cell>
-          <cell r="D52">
-            <v>21.25</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="C53">
-            <v>0.22222222222222221</v>
-          </cell>
-          <cell r="D53">
-            <v>21.25</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="C54">
-            <v>0.22916666666666666</v>
-          </cell>
-          <cell r="D54">
-            <v>21.25</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="C55">
-            <v>0.23263888888888887</v>
-          </cell>
-          <cell r="D55">
-            <v>21.38</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="C56">
-            <v>0.23611111111111113</v>
-          </cell>
-          <cell r="D56">
-            <v>21.25</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="C57">
-            <v>0.23958333333333334</v>
-          </cell>
-          <cell r="D57">
-            <v>21.31</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="C58">
-            <v>0.24305555555555555</v>
-          </cell>
-          <cell r="D58">
-            <v>21.31</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="C59">
-            <v>0.24652777777777779</v>
-          </cell>
-          <cell r="D59">
-            <v>21.25</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="C60">
-            <v>0.25</v>
-          </cell>
-          <cell r="D60">
-            <v>21.31</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="C61">
-            <v>0.25347222222222221</v>
-          </cell>
-          <cell r="D61">
-            <v>21.31</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="C62">
-            <v>0.25694444444444448</v>
-          </cell>
-          <cell r="D62">
-            <v>21.25</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="C63">
-            <v>0.26041666666666669</v>
-          </cell>
-          <cell r="D63">
-            <v>21.25</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="C64">
-            <v>0.2673611111111111</v>
-          </cell>
-          <cell r="D64">
-            <v>21.25</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="C65">
-            <v>0.27430555555555552</v>
-          </cell>
-          <cell r="D65">
-            <v>21.19</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="C66">
-            <v>0.27777777777777779</v>
-          </cell>
-          <cell r="D66">
-            <v>21.19</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="C67">
-            <v>0.28125</v>
-          </cell>
-          <cell r="D67">
-            <v>21.19</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="C68">
-            <v>0.28472222222222221</v>
-          </cell>
-          <cell r="D68">
-            <v>21.19</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="C69">
-            <v>0.28819444444444448</v>
-          </cell>
-          <cell r="D69">
-            <v>21.12</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="C70">
-            <v>0.29166666666666669</v>
-          </cell>
-          <cell r="D70">
-            <v>21.12</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="C71">
-            <v>0.2951388888888889</v>
-          </cell>
-          <cell r="D71">
-            <v>21.12</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="C72">
-            <v>0.2986111111111111</v>
-          </cell>
-          <cell r="D72">
-            <v>21.12</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="C73">
-            <v>0.30208333333333331</v>
-          </cell>
-          <cell r="D73">
-            <v>21.12</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="C74">
-            <v>0.30555555555555552</v>
-          </cell>
-          <cell r="D74">
-            <v>21.06</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="C75">
-            <v>0.3125</v>
-          </cell>
-          <cell r="D75">
-            <v>21.12</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="C76">
-            <v>0.31944444444444448</v>
-          </cell>
-          <cell r="D76">
-            <v>21.19</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="C77">
-            <v>0.32291666666666669</v>
-          </cell>
-          <cell r="D77">
-            <v>21.19</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="C78">
-            <v>0.3263888888888889</v>
-          </cell>
-          <cell r="D78">
-            <v>21.19</v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="C79">
-            <v>0.3298611111111111</v>
-          </cell>
-          <cell r="D79">
-            <v>21.25</v>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="C80">
-            <v>0.33333333333333331</v>
-          </cell>
-          <cell r="D80">
-            <v>21.31</v>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="C81">
-            <v>0.33680555555555558</v>
-          </cell>
-          <cell r="D81">
-            <v>21.31</v>
-          </cell>
-        </row>
-        <row r="82">
-          <cell r="C82">
-            <v>0.34027777777777773</v>
-          </cell>
-          <cell r="D82">
-            <v>21.31</v>
-          </cell>
-        </row>
-        <row r="83">
-          <cell r="C83">
-            <v>0.34375</v>
-          </cell>
-          <cell r="D83">
-            <v>21.44</v>
-          </cell>
-        </row>
-        <row r="84">
-          <cell r="C84">
-            <v>0.34722222222222227</v>
-          </cell>
-          <cell r="D84">
-            <v>21.44</v>
-          </cell>
-        </row>
-        <row r="85">
-          <cell r="C85">
-            <v>0.35069444444444442</v>
-          </cell>
-          <cell r="D85">
-            <v>21.44</v>
-          </cell>
-        </row>
-        <row r="86">
-          <cell r="C86">
-            <v>0.35416666666666669</v>
-          </cell>
-          <cell r="D86">
-            <v>21.44</v>
-          </cell>
-        </row>
-        <row r="87">
-          <cell r="C87">
-            <v>0.3576388888888889</v>
-          </cell>
-          <cell r="D87">
-            <v>21.44</v>
-          </cell>
-        </row>
-        <row r="88">
-          <cell r="C88">
-            <v>0.36458333333333331</v>
-          </cell>
-          <cell r="D88">
-            <v>21.44</v>
-          </cell>
-        </row>
-        <row r="89">
-          <cell r="C89">
-            <v>0.36805555555555558</v>
-          </cell>
-          <cell r="D89">
-            <v>21.44</v>
-          </cell>
-        </row>
-        <row r="90">
-          <cell r="C90">
-            <v>0.37152777777777773</v>
-          </cell>
-          <cell r="D90">
-            <v>16.5</v>
-          </cell>
-        </row>
-        <row r="91">
-          <cell r="C91">
-            <v>0.375</v>
-          </cell>
-          <cell r="D91">
-            <v>19.75</v>
-          </cell>
-        </row>
-        <row r="92">
-          <cell r="C92">
-            <v>0.37847222222222227</v>
-          </cell>
-          <cell r="D92">
-            <v>20.69</v>
-          </cell>
-        </row>
-        <row r="93">
-          <cell r="C93">
-            <v>0.38194444444444442</v>
-          </cell>
-          <cell r="D93">
-            <v>20.88</v>
-          </cell>
-        </row>
-        <row r="94">
-          <cell r="C94">
-            <v>0.38541666666666669</v>
-          </cell>
-          <cell r="D94">
-            <v>21.06</v>
-          </cell>
-        </row>
-        <row r="95">
-          <cell r="C95">
-            <v>0.3888888888888889</v>
-          </cell>
-          <cell r="D95">
-            <v>21.19</v>
-          </cell>
-        </row>
-        <row r="96">
-          <cell r="C96">
-            <v>0.3923611111111111</v>
-          </cell>
-          <cell r="D96">
-            <v>21.31</v>
-          </cell>
-        </row>
-        <row r="97">
-          <cell r="C97">
-            <v>0.39583333333333331</v>
-          </cell>
-          <cell r="D97">
-            <v>21.38</v>
-          </cell>
-        </row>
-        <row r="98">
-          <cell r="C98">
-            <v>0.39930555555555558</v>
-          </cell>
-          <cell r="D98">
-            <v>21.5</v>
-          </cell>
-        </row>
-        <row r="99">
-          <cell r="C99">
-            <v>0.40277777777777773</v>
-          </cell>
-          <cell r="D99">
-            <v>21.56</v>
-          </cell>
-        </row>
-        <row r="100">
-          <cell r="C100">
-            <v>0.40972222222222227</v>
-          </cell>
-          <cell r="D100">
-            <v>21.75</v>
-          </cell>
-        </row>
-        <row r="101">
-          <cell r="C101">
-            <v>0.41319444444444442</v>
-          </cell>
-          <cell r="D101">
-            <v>21.62</v>
-          </cell>
-        </row>
-        <row r="102">
-          <cell r="C102">
-            <v>0.41666666666666669</v>
-          </cell>
-          <cell r="D102">
-            <v>21.62</v>
-          </cell>
-        </row>
-        <row r="103">
-          <cell r="C103">
-            <v>0.4201388888888889</v>
-          </cell>
-          <cell r="D103">
-            <v>21.62</v>
-          </cell>
-        </row>
-        <row r="104">
-          <cell r="C104">
-            <v>0.4236111111111111</v>
-          </cell>
-          <cell r="D104">
-            <v>21.62</v>
-          </cell>
-        </row>
-        <row r="105">
-          <cell r="C105">
-            <v>0.42708333333333331</v>
-          </cell>
-          <cell r="D105">
-            <v>21.62</v>
-          </cell>
-        </row>
-        <row r="106">
-          <cell r="C106">
-            <v>0.43055555555555558</v>
-          </cell>
-          <cell r="D106">
-            <v>21.69</v>
-          </cell>
-        </row>
-        <row r="107">
-          <cell r="C107">
-            <v>0.43402777777777773</v>
-          </cell>
-          <cell r="D107">
-            <v>21.62</v>
-          </cell>
-        </row>
-        <row r="108">
-          <cell r="C108">
-            <v>0.4375</v>
-          </cell>
-          <cell r="D108">
-            <v>21.56</v>
-          </cell>
-        </row>
-        <row r="109">
-          <cell r="C109">
-            <v>0.44097222222222227</v>
-          </cell>
-          <cell r="D109">
-            <v>21.62</v>
-          </cell>
-        </row>
-        <row r="110">
-          <cell r="C110">
-            <v>0.44444444444444442</v>
-          </cell>
-          <cell r="D110">
-            <v>21.5</v>
-          </cell>
-        </row>
-        <row r="111">
-          <cell r="C111">
-            <v>0.44791666666666669</v>
-          </cell>
-          <cell r="D111">
-            <v>21.56</v>
-          </cell>
-        </row>
-        <row r="112">
-          <cell r="C112">
-            <v>0.4548611111111111</v>
-          </cell>
-          <cell r="D112">
-            <v>21.5</v>
-          </cell>
-        </row>
-        <row r="113">
-          <cell r="C113">
-            <v>0.45833333333333331</v>
-          </cell>
-          <cell r="D113">
-            <v>21.5</v>
-          </cell>
-        </row>
-        <row r="114">
-          <cell r="C114">
-            <v>0.46180555555555558</v>
-          </cell>
-          <cell r="D114">
-            <v>21.5</v>
-          </cell>
-        </row>
-        <row r="115">
-          <cell r="C115">
-            <v>0.46527777777777773</v>
-          </cell>
-          <cell r="D115">
-            <v>21.5</v>
-          </cell>
-        </row>
-        <row r="116">
-          <cell r="C116">
-            <v>0.46875</v>
-          </cell>
-          <cell r="D116">
-            <v>21.5</v>
-          </cell>
-        </row>
-        <row r="117">
-          <cell r="C117">
-            <v>0.47222222222222227</v>
-          </cell>
-          <cell r="D117">
-            <v>21.5</v>
-          </cell>
-        </row>
-        <row r="118">
-          <cell r="C118">
-            <v>0.47569444444444442</v>
-          </cell>
-          <cell r="D118">
-            <v>21.5</v>
-          </cell>
-        </row>
-        <row r="119">
-          <cell r="C119">
-            <v>0.47916666666666669</v>
-          </cell>
-          <cell r="D119">
-            <v>21.56</v>
-          </cell>
-        </row>
-        <row r="120">
-          <cell r="C120">
-            <v>0.4826388888888889</v>
-          </cell>
-          <cell r="D120">
-            <v>21.56</v>
-          </cell>
-        </row>
-        <row r="121">
-          <cell r="C121">
-            <v>0.4861111111111111</v>
-          </cell>
-          <cell r="D121">
-            <v>21.56</v>
-          </cell>
-        </row>
-        <row r="122">
-          <cell r="C122">
-            <v>0.48958333333333331</v>
-          </cell>
-          <cell r="D122">
-            <v>21.62</v>
-          </cell>
-        </row>
-        <row r="123">
-          <cell r="C123">
-            <v>0.49305555555555558</v>
-          </cell>
-          <cell r="D123">
-            <v>21.56</v>
-          </cell>
-        </row>
-        <row r="124">
-          <cell r="C124">
-            <v>0.5</v>
-          </cell>
-          <cell r="D124">
-            <v>21.56</v>
-          </cell>
-        </row>
-        <row r="125">
-          <cell r="C125">
-            <v>0.50347222222222221</v>
-          </cell>
-          <cell r="D125">
-            <v>21.62</v>
-          </cell>
-        </row>
-        <row r="126">
-          <cell r="C126">
-            <v>0.50694444444444442</v>
-          </cell>
-          <cell r="D126">
-            <v>21.62</v>
-          </cell>
-        </row>
-        <row r="127">
-          <cell r="C127">
-            <v>0.51041666666666663</v>
-          </cell>
-          <cell r="D127">
-            <v>21.56</v>
-          </cell>
-        </row>
-        <row r="128">
-          <cell r="C128">
-            <v>0.51388888888888895</v>
-          </cell>
-          <cell r="D128">
-            <v>21.56</v>
-          </cell>
-        </row>
-        <row r="129">
-          <cell r="C129">
-            <v>0.51736111111111105</v>
-          </cell>
-          <cell r="D129">
-            <v>21.5</v>
-          </cell>
-        </row>
-        <row r="130">
-          <cell r="C130">
-            <v>0.52083333333333337</v>
-          </cell>
-          <cell r="D130">
-            <v>21.56</v>
-          </cell>
-        </row>
-        <row r="131">
-          <cell r="C131">
-            <v>0.52430555555555558</v>
-          </cell>
-          <cell r="D131">
-            <v>21.56</v>
-          </cell>
-        </row>
-        <row r="132">
-          <cell r="C132">
-            <v>0.52777777777777779</v>
-          </cell>
-          <cell r="D132">
-            <v>21.5</v>
-          </cell>
-        </row>
-        <row r="133">
-          <cell r="C133">
-            <v>0.53125</v>
-          </cell>
-          <cell r="D133">
-            <v>21.5</v>
-          </cell>
-        </row>
-        <row r="134">
-          <cell r="C134">
-            <v>0.53472222222222221</v>
-          </cell>
-          <cell r="D134">
-            <v>21.56</v>
-          </cell>
-        </row>
-        <row r="135">
-          <cell r="C135">
-            <v>0.53819444444444442</v>
-          </cell>
-          <cell r="D135">
-            <v>21.5</v>
-          </cell>
-        </row>
-        <row r="136">
-          <cell r="C136">
-            <v>0.54513888888888895</v>
-          </cell>
-          <cell r="D136">
-            <v>21.5</v>
-          </cell>
-        </row>
-        <row r="137">
-          <cell r="C137">
-            <v>0.54861111111111105</v>
-          </cell>
-          <cell r="D137">
-            <v>21.5</v>
-          </cell>
-        </row>
-        <row r="138">
-          <cell r="C138">
-            <v>0.55208333333333337</v>
-          </cell>
-          <cell r="D138">
-            <v>21.5</v>
-          </cell>
-        </row>
-        <row r="139">
-          <cell r="C139">
-            <v>0.55555555555555558</v>
-          </cell>
-          <cell r="D139">
-            <v>21.56</v>
-          </cell>
-        </row>
-        <row r="140">
-          <cell r="C140">
-            <v>0.55902777777777779</v>
-          </cell>
-          <cell r="D140">
-            <v>21.62</v>
-          </cell>
-        </row>
-        <row r="141">
-          <cell r="C141">
-            <v>0.5625</v>
-          </cell>
-          <cell r="D141">
-            <v>21.62</v>
-          </cell>
-        </row>
-        <row r="142">
-          <cell r="C142">
-            <v>0.56597222222222221</v>
-          </cell>
-          <cell r="D142">
-            <v>21.62</v>
-          </cell>
-        </row>
-        <row r="143">
-          <cell r="C143">
-            <v>0.56944444444444442</v>
-          </cell>
-          <cell r="D143">
-            <v>21.69</v>
-          </cell>
-        </row>
-        <row r="144">
-          <cell r="C144">
-            <v>0.57291666666666663</v>
-          </cell>
-          <cell r="D144">
-            <v>21.75</v>
-          </cell>
-        </row>
-        <row r="145">
-          <cell r="C145">
-            <v>0.57638888888888895</v>
-          </cell>
-          <cell r="D145">
-            <v>21.69</v>
-          </cell>
-        </row>
-        <row r="146">
-          <cell r="C146">
-            <v>0.57986111111111105</v>
-          </cell>
-          <cell r="D146">
-            <v>21.69</v>
-          </cell>
-        </row>
-        <row r="147">
-          <cell r="C147">
-            <v>0.58680555555555558</v>
-          </cell>
-          <cell r="D147">
-            <v>21.69</v>
-          </cell>
-        </row>
-        <row r="148">
-          <cell r="C148">
-            <v>0.59027777777777779</v>
-          </cell>
-          <cell r="D148">
-            <v>21.69</v>
-          </cell>
-        </row>
-        <row r="149">
-          <cell r="C149">
-            <v>0.59375</v>
-          </cell>
-          <cell r="D149">
-            <v>21.69</v>
-          </cell>
-        </row>
-        <row r="150">
-          <cell r="C150">
-            <v>0.59722222222222221</v>
-          </cell>
-          <cell r="D150">
-            <v>21.69</v>
-          </cell>
-        </row>
-        <row r="151">
-          <cell r="C151">
-            <v>0.60069444444444442</v>
-          </cell>
-          <cell r="D151">
-            <v>21.69</v>
-          </cell>
-        </row>
-        <row r="152">
-          <cell r="C152">
-            <v>0.60416666666666663</v>
-          </cell>
-          <cell r="D152">
-            <v>21.69</v>
-          </cell>
-        </row>
-        <row r="153">
-          <cell r="C153">
-            <v>0.60763888888888884</v>
-          </cell>
-          <cell r="D153">
-            <v>21.69</v>
-          </cell>
-        </row>
-        <row r="154">
-          <cell r="C154">
-            <v>0.61111111111111105</v>
-          </cell>
-          <cell r="D154">
-            <v>21.69</v>
-          </cell>
-        </row>
-        <row r="155">
-          <cell r="C155">
-            <v>0.61458333333333326</v>
-          </cell>
-          <cell r="D155">
-            <v>21.69</v>
-          </cell>
-        </row>
-        <row r="156">
-          <cell r="C156">
-            <v>0.61805555555555547</v>
-          </cell>
-          <cell r="D156">
-            <v>21.69</v>
-          </cell>
-        </row>
-        <row r="157">
-          <cell r="C157">
-            <v>0.62152777777777768</v>
-          </cell>
-          <cell r="D157">
-            <v>21.69</v>
-          </cell>
-        </row>
-        <row r="158">
-          <cell r="C158">
-            <v>0.62499999999999989</v>
-          </cell>
-          <cell r="D158">
-            <v>21.69</v>
-          </cell>
-        </row>
-        <row r="159">
-          <cell r="C159">
-            <v>0.6284722222222221</v>
-          </cell>
-          <cell r="D159">
-            <v>21.69</v>
-          </cell>
-        </row>
-        <row r="160">
-          <cell r="C160">
-            <v>0.63194444444444431</v>
-          </cell>
-          <cell r="D160">
-            <v>21.69</v>
-          </cell>
-        </row>
-        <row r="161">
-          <cell r="C161">
-            <v>0.63541666666666652</v>
-          </cell>
-          <cell r="D161">
-            <v>21.69</v>
-          </cell>
-        </row>
-        <row r="162">
-          <cell r="C162">
-            <v>0.63888888888888873</v>
-          </cell>
-          <cell r="D162">
-            <v>21.69</v>
-          </cell>
-        </row>
-        <row r="163">
-          <cell r="C163">
-            <v>0.64236111111111094</v>
-          </cell>
-          <cell r="D163">
-            <v>21.69</v>
-          </cell>
-        </row>
-        <row r="164">
-          <cell r="C164">
-            <v>0.64583333333333315</v>
-          </cell>
-          <cell r="D164">
-            <v>21.69</v>
-          </cell>
-        </row>
-        <row r="165">
-          <cell r="C165">
-            <v>0.64930555555555536</v>
-          </cell>
-          <cell r="D165">
-            <v>21.69</v>
-          </cell>
-        </row>
-        <row r="166">
-          <cell r="C166">
-            <v>0.65277777777777757</v>
-          </cell>
-          <cell r="D166">
-            <v>21.69</v>
-          </cell>
-        </row>
-        <row r="167">
-          <cell r="C167">
-            <v>0.65624999999999978</v>
-          </cell>
-          <cell r="D167">
-            <v>21.69</v>
-          </cell>
-        </row>
-        <row r="168">
-          <cell r="C168">
-            <v>0.65972222222222199</v>
-          </cell>
-          <cell r="D168">
-            <v>21.69</v>
-          </cell>
-        </row>
-        <row r="169">
-          <cell r="C169">
-            <v>0.6631944444444442</v>
-          </cell>
-          <cell r="D169">
-            <v>21.69</v>
-          </cell>
-        </row>
-        <row r="170">
-          <cell r="C170">
-            <v>0.66666666666666641</v>
-          </cell>
-          <cell r="D170">
-            <v>21.69</v>
-          </cell>
-        </row>
-        <row r="171">
-          <cell r="C171">
-            <v>0.67013888888888862</v>
-          </cell>
-          <cell r="D171">
-            <v>21.69</v>
-          </cell>
-        </row>
-        <row r="172">
-          <cell r="C172">
-            <v>0.67361111111111083</v>
-          </cell>
-          <cell r="D172">
-            <v>21.69</v>
-          </cell>
-        </row>
-        <row r="173">
-          <cell r="C173">
-            <v>0.67708333333333304</v>
-          </cell>
-          <cell r="D173">
-            <v>21.69</v>
-          </cell>
-        </row>
-        <row r="174">
-          <cell r="C174">
-            <v>0.68055555555555525</v>
-          </cell>
-          <cell r="D174">
-            <v>21.69</v>
-          </cell>
-        </row>
-        <row r="175">
-          <cell r="C175">
-            <v>0.68402777777777746</v>
-          </cell>
-          <cell r="D175">
-            <v>21.69</v>
-          </cell>
-        </row>
-        <row r="176">
-          <cell r="C176">
-            <v>0.68749999999999967</v>
-          </cell>
-          <cell r="D176">
-            <v>21.69</v>
-          </cell>
-        </row>
-        <row r="177">
-          <cell r="C177">
-            <v>0.69097222222222188</v>
-          </cell>
-          <cell r="D177">
-            <v>21.69</v>
-          </cell>
-        </row>
-        <row r="178">
-          <cell r="C178">
-            <v>0.69444444444444409</v>
-          </cell>
-          <cell r="D178">
-            <v>21.69</v>
-          </cell>
-        </row>
-        <row r="179">
-          <cell r="C179">
-            <v>0.6979166666666663</v>
-          </cell>
-          <cell r="D179">
-            <v>21.69</v>
-          </cell>
-        </row>
-        <row r="180">
-          <cell r="C180">
-            <v>0.70138888888888851</v>
-          </cell>
-          <cell r="D180">
-            <v>21.69</v>
-          </cell>
-        </row>
-        <row r="181">
-          <cell r="C181">
-            <v>0.70486111111111072</v>
-          </cell>
-          <cell r="D181">
-            <v>21.69</v>
-          </cell>
-        </row>
-        <row r="182">
-          <cell r="C182">
-            <v>0.70833333333333293</v>
-          </cell>
-          <cell r="D182">
-            <v>21.69</v>
-          </cell>
-        </row>
-        <row r="183">
-          <cell r="C183">
-            <v>0.71180555555555514</v>
-          </cell>
-          <cell r="D183">
-            <v>21.69</v>
-          </cell>
-        </row>
-        <row r="184">
-          <cell r="C184">
-            <v>0.71527777777777735</v>
-          </cell>
-          <cell r="D184">
-            <v>21.69</v>
-          </cell>
-        </row>
-        <row r="185">
-          <cell r="C185">
-            <v>0.71874999999999956</v>
-          </cell>
-          <cell r="D185">
-            <v>21.69</v>
-          </cell>
-        </row>
-        <row r="186">
-          <cell r="C186">
-            <v>0.72222222222222177</v>
-          </cell>
-          <cell r="D186">
-            <v>21.69</v>
-          </cell>
-        </row>
-        <row r="187">
-          <cell r="C187">
-            <v>0.72569444444444398</v>
-          </cell>
-          <cell r="D187">
-            <v>21.69</v>
-          </cell>
-        </row>
-        <row r="188">
-          <cell r="C188">
-            <v>0.72916666666666619</v>
-          </cell>
-          <cell r="D188">
-            <v>21.69</v>
-          </cell>
-        </row>
-        <row r="189">
-          <cell r="C189">
-            <v>0.7326388888888884</v>
-          </cell>
-          <cell r="D189">
-            <v>21.69</v>
-          </cell>
-        </row>
-        <row r="190">
-          <cell r="C190">
-            <v>0.73611111111111061</v>
-          </cell>
-          <cell r="D190">
-            <v>21.69</v>
-          </cell>
-        </row>
-        <row r="191">
-          <cell r="C191">
-            <v>0.73958333333333282</v>
-          </cell>
-          <cell r="D191">
-            <v>21.69</v>
-          </cell>
-        </row>
-        <row r="192">
-          <cell r="C192">
-            <v>0.74305555555555503</v>
-          </cell>
-          <cell r="D192">
-            <v>21.69</v>
-          </cell>
-        </row>
-        <row r="193">
-          <cell r="C193">
-            <v>0.74652777777777724</v>
-          </cell>
-          <cell r="D193">
-            <v>21.69</v>
-          </cell>
-        </row>
-        <row r="194">
-          <cell r="C194">
-            <v>0.74999999999999944</v>
-          </cell>
-          <cell r="D194">
-            <v>21.69</v>
-          </cell>
-        </row>
-        <row r="195">
-          <cell r="C195">
-            <v>0.75347222222222165</v>
-          </cell>
-          <cell r="D195">
-            <v>21.69</v>
-          </cell>
-        </row>
-        <row r="196">
-          <cell r="C196">
-            <v>0.75694444444444386</v>
-          </cell>
-          <cell r="D196">
-            <v>21.69</v>
-          </cell>
-        </row>
-        <row r="197">
-          <cell r="C197">
-            <v>0.76041666666666607</v>
-          </cell>
-          <cell r="D197">
-            <v>21.69</v>
-          </cell>
-        </row>
-        <row r="198">
-          <cell r="C198">
-            <v>0.76388888888888828</v>
-          </cell>
-          <cell r="D198">
-            <v>21.69</v>
-          </cell>
-        </row>
-        <row r="199">
-          <cell r="C199">
-            <v>0.76736111111111049</v>
-          </cell>
-          <cell r="D199">
-            <v>21.69</v>
-          </cell>
-        </row>
-        <row r="200">
-          <cell r="C200">
-            <v>0.7708333333333327</v>
-          </cell>
-          <cell r="D200">
-            <v>21.69</v>
-          </cell>
-        </row>
-        <row r="201">
-          <cell r="C201">
-            <v>0.77430555555555491</v>
-          </cell>
-          <cell r="D201">
-            <v>21.69</v>
-          </cell>
-        </row>
-        <row r="202">
-          <cell r="C202">
-            <v>0.77777777777777712</v>
-          </cell>
-          <cell r="D202">
-            <v>21.69</v>
-          </cell>
-        </row>
-        <row r="203">
-          <cell r="C203">
-            <v>0.78124999999999933</v>
-          </cell>
-          <cell r="D203">
-            <v>21.69</v>
-          </cell>
-        </row>
-        <row r="204">
-          <cell r="C204">
-            <v>0.78472222222222154</v>
-          </cell>
-          <cell r="D204">
-            <v>21.69</v>
-          </cell>
-        </row>
-        <row r="205">
-          <cell r="C205">
-            <v>0.78819444444444375</v>
-          </cell>
-          <cell r="D205">
-            <v>21.69</v>
-          </cell>
-        </row>
-        <row r="206">
-          <cell r="C206">
-            <v>0.79166666666666596</v>
-          </cell>
-          <cell r="D206">
-            <v>21.69</v>
-          </cell>
-        </row>
-        <row r="207">
-          <cell r="C207">
-            <v>0.79513888888888817</v>
-          </cell>
-          <cell r="D207">
-            <v>21.69</v>
-          </cell>
-        </row>
-        <row r="208">
-          <cell r="C208">
-            <v>0.79861111111111038</v>
-          </cell>
-          <cell r="D208">
-            <v>21.69</v>
-          </cell>
-        </row>
-        <row r="209">
-          <cell r="C209">
-            <v>0.80208333333333259</v>
-          </cell>
-          <cell r="D209">
-            <v>21.69</v>
-          </cell>
-        </row>
-        <row r="210">
-          <cell r="C210">
-            <v>0.8055555555555548</v>
-          </cell>
-          <cell r="D210">
-            <v>21.69</v>
-          </cell>
-        </row>
-        <row r="211">
-          <cell r="C211">
-            <v>0.80902777777777701</v>
-          </cell>
-          <cell r="D211">
-            <v>21.69</v>
-          </cell>
-        </row>
-        <row r="212">
-          <cell r="C212">
-            <v>0.81249999999999922</v>
-          </cell>
-          <cell r="D212">
-            <v>21.69</v>
-          </cell>
-        </row>
-        <row r="213">
-          <cell r="C213">
-            <v>0.81597222222222143</v>
-          </cell>
-          <cell r="D213">
-            <v>21.69</v>
-          </cell>
-        </row>
-        <row r="214">
-          <cell r="C214">
-            <v>0.81944444444444364</v>
-          </cell>
-          <cell r="D214">
-            <v>21.69</v>
-          </cell>
-        </row>
-        <row r="215">
-          <cell r="C215">
-            <v>0.82291666666666585</v>
-          </cell>
-          <cell r="D215">
-            <v>21.69</v>
-          </cell>
-        </row>
-        <row r="216">
-          <cell r="C216">
-            <v>0.82638888888888806</v>
-          </cell>
-          <cell r="D216">
-            <v>21.69</v>
-          </cell>
-        </row>
-        <row r="217">
-          <cell r="C217">
-            <v>0.82986111111111027</v>
-          </cell>
-          <cell r="D217">
-            <v>21.69</v>
-          </cell>
-        </row>
-        <row r="218">
-          <cell r="C218">
-            <v>0.83333333333333248</v>
-          </cell>
-          <cell r="D218">
-            <v>21.69</v>
-          </cell>
-        </row>
-        <row r="219">
-          <cell r="C219">
-            <v>0.83680555555555469</v>
-          </cell>
-          <cell r="D219">
-            <v>21.69</v>
-          </cell>
-        </row>
-        <row r="220">
-          <cell r="C220">
-            <v>0.8402777777777769</v>
-          </cell>
-          <cell r="D220">
-            <v>21.69</v>
-          </cell>
-        </row>
-        <row r="221">
-          <cell r="C221">
-            <v>0.84374999999999911</v>
-          </cell>
-          <cell r="D221">
-            <v>21.69</v>
-          </cell>
-        </row>
-        <row r="222">
-          <cell r="C222">
-            <v>0.84722222222222132</v>
-          </cell>
-          <cell r="D222">
-            <v>21.69</v>
-          </cell>
-        </row>
-        <row r="223">
-          <cell r="C223">
-            <v>0.85069444444444353</v>
-          </cell>
-          <cell r="D223">
-            <v>21.69</v>
-          </cell>
-        </row>
-        <row r="224">
-          <cell r="C224">
-            <v>0.85416666666666574</v>
-          </cell>
-          <cell r="D224">
-            <v>21.69</v>
-          </cell>
-        </row>
-        <row r="225">
-          <cell r="C225">
-            <v>0.85763888888888795</v>
-          </cell>
-          <cell r="D225">
-            <v>21.69</v>
-          </cell>
-        </row>
-        <row r="226">
-          <cell r="C226">
-            <v>0.86111111111111016</v>
-          </cell>
-          <cell r="D226">
-            <v>21.69</v>
-          </cell>
-        </row>
-        <row r="227">
-          <cell r="C227">
-            <v>0.86458333333333237</v>
-          </cell>
-          <cell r="D227">
-            <v>21.69</v>
-          </cell>
-        </row>
-        <row r="228">
-          <cell r="C228">
-            <v>0.86805555555555458</v>
-          </cell>
-          <cell r="D228">
-            <v>21.69</v>
-          </cell>
-        </row>
-        <row r="229">
-          <cell r="C229">
-            <v>0.87152777777777679</v>
-          </cell>
-          <cell r="D229">
-            <v>21.69</v>
-          </cell>
-        </row>
-        <row r="230">
-          <cell r="C230">
-            <v>0.874999999999999</v>
-          </cell>
-          <cell r="D230">
-            <v>21.69</v>
-          </cell>
-        </row>
-        <row r="231">
-          <cell r="C231">
-            <v>0.87847222222222121</v>
-          </cell>
-          <cell r="D231">
-            <v>21.69</v>
-          </cell>
-        </row>
-        <row r="232">
-          <cell r="C232">
-            <v>0.88194444444444342</v>
-          </cell>
-          <cell r="D232">
-            <v>21.69</v>
-          </cell>
-        </row>
-        <row r="233">
-          <cell r="C233">
-            <v>0.88541666666666563</v>
-          </cell>
-          <cell r="D233">
-            <v>21.69</v>
-          </cell>
-        </row>
-        <row r="234">
-          <cell r="C234">
-            <v>0.88888888888888784</v>
-          </cell>
-          <cell r="D234">
-            <v>21.69</v>
-          </cell>
-        </row>
-        <row r="235">
-          <cell r="C235">
-            <v>0.89236111111111005</v>
-          </cell>
-          <cell r="D235">
-            <v>21.69</v>
-          </cell>
-        </row>
-        <row r="236">
-          <cell r="C236">
-            <v>0.89583333333333226</v>
-          </cell>
-          <cell r="D236">
-            <v>21.69</v>
-          </cell>
-        </row>
-        <row r="237">
-          <cell r="C237">
-            <v>0.89930555555555447</v>
-          </cell>
-          <cell r="D237">
-            <v>21.69</v>
-          </cell>
-        </row>
-        <row r="238">
-          <cell r="C238">
-            <v>0.90277777777777668</v>
-          </cell>
-          <cell r="D238">
-            <v>21.69</v>
-          </cell>
-        </row>
-        <row r="239">
-          <cell r="C239">
-            <v>0.90624999999999889</v>
-          </cell>
-          <cell r="D239">
-            <v>21.69</v>
-          </cell>
-        </row>
-        <row r="240">
-          <cell r="C240">
-            <v>0.9097222222222211</v>
-          </cell>
-          <cell r="D240">
-            <v>21.69</v>
-          </cell>
-        </row>
-        <row r="241">
-          <cell r="C241">
-            <v>0.91319444444444331</v>
-          </cell>
-          <cell r="D241">
-            <v>21.69</v>
-          </cell>
-        </row>
-        <row r="242">
-          <cell r="C242">
-            <v>0.91666666666666552</v>
-          </cell>
-          <cell r="D242">
-            <v>21.69</v>
-          </cell>
-        </row>
-        <row r="243">
-          <cell r="C243">
-            <v>0.92013888888888773</v>
-          </cell>
-          <cell r="D243">
-            <v>21.69</v>
-          </cell>
-        </row>
-        <row r="244">
-          <cell r="C244">
-            <v>0.92361111111110994</v>
-          </cell>
-          <cell r="D244">
-            <v>21.69</v>
-          </cell>
-        </row>
-        <row r="245">
-          <cell r="C245">
-            <v>0.92708333333333215</v>
-          </cell>
-          <cell r="D245">
-            <v>21.69</v>
-          </cell>
-        </row>
-        <row r="246">
-          <cell r="C246">
-            <v>0.93055555555555436</v>
-          </cell>
-          <cell r="D246">
-            <v>21.69</v>
-          </cell>
-        </row>
-        <row r="247">
-          <cell r="C247">
-            <v>0.93402777777777657</v>
-          </cell>
-          <cell r="D247">
-            <v>21.69</v>
-          </cell>
-        </row>
-        <row r="248">
-          <cell r="C248">
-            <v>0.93749999999999878</v>
-          </cell>
-          <cell r="D248">
-            <v>21.69</v>
-          </cell>
-        </row>
-        <row r="249">
-          <cell r="C249">
-            <v>0.94097222222222099</v>
-          </cell>
-          <cell r="D249">
-            <v>21.69</v>
-          </cell>
-        </row>
-        <row r="250">
-          <cell r="C250">
-            <v>0.9444444444444432</v>
-          </cell>
-          <cell r="D250">
-            <v>21.69</v>
-          </cell>
-        </row>
-        <row r="251">
-          <cell r="C251">
-            <v>0.94791666666666541</v>
-          </cell>
-          <cell r="D251">
-            <v>21.69</v>
-          </cell>
-        </row>
-        <row r="252">
-          <cell r="C252">
-            <v>0.95138888888888762</v>
-          </cell>
-          <cell r="D252">
-            <v>21.69</v>
-          </cell>
-        </row>
-        <row r="253">
-          <cell r="C253">
-            <v>0.95486111111110983</v>
-          </cell>
-          <cell r="D253">
-            <v>21.69</v>
-          </cell>
-        </row>
-        <row r="254">
-          <cell r="C254">
-            <v>0.95833333333333204</v>
-          </cell>
-          <cell r="D254">
-            <v>21.69</v>
-          </cell>
-        </row>
-        <row r="255">
-          <cell r="C255">
-            <v>0.96180555555555425</v>
-          </cell>
-          <cell r="D255">
-            <v>21.69</v>
-          </cell>
-        </row>
-        <row r="256">
-          <cell r="C256">
-            <v>0.96527777777777646</v>
-          </cell>
-          <cell r="D256">
-            <v>21.69</v>
-          </cell>
-        </row>
-        <row r="257">
-          <cell r="C257">
-            <v>0.96874999999999867</v>
-          </cell>
-          <cell r="D257">
-            <v>21.69</v>
-          </cell>
-        </row>
-        <row r="258">
-          <cell r="C258">
-            <v>0.97222222222222088</v>
-          </cell>
-          <cell r="D258">
-            <v>21.69</v>
-          </cell>
-        </row>
-        <row r="259">
-          <cell r="C259">
-            <v>0.97569444444444309</v>
-          </cell>
-          <cell r="D259">
-            <v>21.69</v>
-          </cell>
-        </row>
-        <row r="260">
-          <cell r="C260">
-            <v>0.9791666666666653</v>
-          </cell>
-          <cell r="D260">
-            <v>21.69</v>
-          </cell>
-        </row>
-        <row r="261">
-          <cell r="C261">
-            <v>0.98263888888888751</v>
-          </cell>
-          <cell r="D261">
-            <v>21.69</v>
-          </cell>
-        </row>
-        <row r="262">
-          <cell r="C262">
-            <v>0.98611111111110972</v>
-          </cell>
-          <cell r="D262">
-            <v>21.69</v>
-          </cell>
-        </row>
-        <row r="263">
-          <cell r="C263">
-            <v>0.98958333333333193</v>
-          </cell>
-          <cell r="D263">
-            <v>21.69</v>
-          </cell>
-        </row>
-        <row r="264">
-          <cell r="C264">
-            <v>0.99305555555555414</v>
-          </cell>
-          <cell r="D264">
-            <v>21.69</v>
-          </cell>
-        </row>
-        <row r="265">
-          <cell r="C265">
-            <v>0.99652777777777635</v>
-          </cell>
-          <cell r="D265">
-            <v>21.69</v>
-          </cell>
-        </row>
-        <row r="266">
-          <cell r="C266">
-            <v>0.99999999999999856</v>
-          </cell>
-          <cell r="D266">
-            <v>21.69</v>
-          </cell>
-        </row>
-        <row r="267">
-          <cell r="C267">
-            <v>1.0034722222222208</v>
-          </cell>
-          <cell r="D267">
-            <v>21.69</v>
-          </cell>
-        </row>
-        <row r="268">
-          <cell r="C268">
-            <v>1.0069444444444429</v>
-          </cell>
-          <cell r="D268">
-            <v>21.69</v>
-          </cell>
-        </row>
-        <row r="269">
-          <cell r="C269">
-            <v>1.0104166666666652</v>
-          </cell>
-          <cell r="D269">
-            <v>21.69</v>
-          </cell>
-        </row>
-        <row r="270">
-          <cell r="C270">
-            <v>1.0138888888888875</v>
-          </cell>
-          <cell r="D270">
-            <v>21.69</v>
-          </cell>
-        </row>
-        <row r="271">
-          <cell r="C271">
-            <v>1.0173611111111098</v>
-          </cell>
-          <cell r="D271">
-            <v>21.69</v>
-          </cell>
-        </row>
-        <row r="272">
-          <cell r="C272">
-            <v>1.0208333333333321</v>
-          </cell>
-          <cell r="D272">
-            <v>21.69</v>
-          </cell>
-        </row>
-        <row r="273">
-          <cell r="C273">
-            <v>1.0243055555555545</v>
-          </cell>
-          <cell r="D273">
-            <v>21.69</v>
-          </cell>
-        </row>
-        <row r="274">
-          <cell r="C274">
-            <v>1.0277777777777768</v>
-          </cell>
-          <cell r="D274">
-            <v>21.69</v>
-          </cell>
-        </row>
-        <row r="275">
-          <cell r="C275">
-            <v>1.0312499999999991</v>
-          </cell>
-          <cell r="D275">
-            <v>21.69</v>
-          </cell>
-        </row>
-        <row r="276">
-          <cell r="C276">
-            <v>1.0347222222222214</v>
-          </cell>
-          <cell r="D276">
-            <v>21.69</v>
-          </cell>
-        </row>
-        <row r="277">
-          <cell r="C277">
-            <v>1.0381944444444438</v>
-          </cell>
-          <cell r="D277">
-            <v>21.69</v>
-          </cell>
-        </row>
-        <row r="278">
-          <cell r="C278">
-            <v>1.0416666666666661</v>
-          </cell>
-          <cell r="D278">
-            <v>21.69</v>
-          </cell>
-        </row>
-        <row r="279">
-          <cell r="C279">
-            <v>1.0451388888888884</v>
-          </cell>
-          <cell r="D279">
-            <v>21.69</v>
-          </cell>
-        </row>
-        <row r="280">
-          <cell r="C280">
-            <v>1.0486111111111107</v>
-          </cell>
-          <cell r="D280">
-            <v>21.69</v>
-          </cell>
-        </row>
-        <row r="281">
-          <cell r="C281">
-            <v>1.052083333333333</v>
-          </cell>
-          <cell r="D281">
-            <v>21.69</v>
-          </cell>
-        </row>
-        <row r="282">
-          <cell r="C282">
-            <v>1.0555555555555554</v>
-          </cell>
-          <cell r="D282">
-            <v>21.69</v>
-          </cell>
-        </row>
-        <row r="283">
-          <cell r="C283">
-            <v>1.0590277777777777</v>
-          </cell>
-          <cell r="D283">
-            <v>21.69</v>
-          </cell>
-        </row>
-        <row r="284">
-          <cell r="C284">
-            <v>1.0625</v>
-          </cell>
-          <cell r="D284">
-            <v>21.69</v>
-          </cell>
-        </row>
-        <row r="285">
-          <cell r="C285">
-            <v>1.0659722222222223</v>
-          </cell>
-          <cell r="D285">
-            <v>21.69</v>
-          </cell>
-        </row>
-        <row r="286">
-          <cell r="C286">
-            <v>1.0694444444444446</v>
-          </cell>
-          <cell r="D286">
-            <v>21.69</v>
-          </cell>
-        </row>
-        <row r="287">
-          <cell r="C287">
-            <v>1.072916666666667</v>
-          </cell>
-          <cell r="D287">
-            <v>21.69</v>
-          </cell>
-        </row>
-        <row r="288">
-          <cell r="C288">
-            <v>1.0763888888888893</v>
-          </cell>
-          <cell r="D288">
-            <v>21.69</v>
-          </cell>
-        </row>
-        <row r="289">
-          <cell r="C289">
-            <v>1.0798611111111116</v>
-          </cell>
-          <cell r="D289">
-            <v>21.69</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FAEF9546-148D-42DE-8EF6-235FB6643A4A}" name="Data3" displayName="Data3" ref="A1:D289" totalsRowShown="0">
   <autoFilter ref="A1:D289" xr:uid="{FAEF9546-148D-42DE-8EF6-235FB6643A4A}"/>
@@ -4590,7 +2263,7 @@
       <calculatedColumnFormula>IFERROR(IF(TIME(HOUR(A2),MINUTE(A2),0) = 0,C1+0.00347222222222221,TIME(HOUR(A2),MINUTE(A2),0)),0)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{D9BD3513-B970-45B1-9AED-D4764D3F5B33}" name="Teplota" dataDxfId="0">
-      <calculatedColumnFormula>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D1)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D1),0)</calculatedColumnFormula>
+      <calculatedColumnFormula>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D1)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D1),$F$4)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -4897,12 +2570,12 @@
   <dimension ref="A1:F289"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="21.85546875" style="2" customWidth="1"/>
+    <col min="1" max="2" width="21.85546875" style="2" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
@@ -4932,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D1)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D1),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D1)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D1),$F$4)</f>
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
@@ -4951,7 +2624,7 @@
         <v>3.4722222222222099E-3</v>
       </c>
       <c r="D3" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D2)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D2),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D2)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D2),$F$4)</f>
         <v>0</v>
       </c>
       <c r="E3" s="7" t="s">
@@ -4970,7 +2643,7 @@
         <v>6.9444444444444198E-3</v>
       </c>
       <c r="D4" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D3)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D3),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D3)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D3),$F$4)</f>
         <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
@@ -4989,7 +2662,7 @@
         <v>1.041666666666663E-2</v>
       </c>
       <c r="D5" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D4)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D4),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D4)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D4),$F$4)</f>
         <v>0</v>
       </c>
       <c r="E5" s="9" t="s">
@@ -5008,7 +2681,7 @@
         <v>1.388888888888884E-2</v>
       </c>
       <c r="D6" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D5)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D5),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D5)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D5),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -5020,7 +2693,7 @@
         <v>1.7361111111111049E-2</v>
       </c>
       <c r="D7" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D6)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D6),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D6)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D6),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -5032,7 +2705,7 @@
         <v>2.0833333333333259E-2</v>
       </c>
       <c r="D8" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D7)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D7),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D7)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D7),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -5044,7 +2717,7 @@
         <v>2.4305555555555469E-2</v>
       </c>
       <c r="D9" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D8)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D8),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D8)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D8),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -5056,7 +2729,7 @@
         <v>2.7777777777777679E-2</v>
       </c>
       <c r="D10" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D9)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D9),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D9)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D9),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -5068,7 +2741,7 @@
         <v>3.1249999999999889E-2</v>
       </c>
       <c r="D11" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D10)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D10),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D10)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D10),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -5080,7 +2753,7 @@
         <v>3.4722222222222099E-2</v>
       </c>
       <c r="D12" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D11)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D11),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D11)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D11),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -5092,7 +2765,7 @@
         <v>3.8194444444444309E-2</v>
       </c>
       <c r="D13" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D12)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D12),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D12)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D12),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -5104,7 +2777,7 @@
         <v>4.1666666666666519E-2</v>
       </c>
       <c r="D14" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D13)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D13),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D13)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D13),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -5116,7 +2789,7 @@
         <v>4.5138888888888729E-2</v>
       </c>
       <c r="D15" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D14)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D14),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D14)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D14),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -5128,7 +2801,7 @@
         <v>4.8611111111110938E-2</v>
       </c>
       <c r="D16" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D15)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D15),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D15)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D15),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -5140,7 +2813,7 @@
         <v>5.2083333333333148E-2</v>
       </c>
       <c r="D17" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D16)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D16),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D16)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D16),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -5152,7 +2825,7 @@
         <v>5.5555555555555358E-2</v>
       </c>
       <c r="D18" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D17)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D17),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D17)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D17),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -5164,7 +2837,7 @@
         <v>5.9027777777777568E-2</v>
       </c>
       <c r="D19" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D18)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D18),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D18)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D18),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -5176,7 +2849,7 @@
         <v>6.2499999999999778E-2</v>
       </c>
       <c r="D20" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D19)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D19),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D19)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D19),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -5188,7 +2861,7 @@
         <v>6.5972222222221988E-2</v>
       </c>
       <c r="D21" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D20)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D20),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D20)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D20),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -5200,7 +2873,7 @@
         <v>6.9444444444444198E-2</v>
       </c>
       <c r="D22" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D21)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D21),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D21)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D21),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -5212,7 +2885,7 @@
         <v>7.2916666666666408E-2</v>
       </c>
       <c r="D23" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D22)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D22),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D22)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D22),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -5224,7 +2897,7 @@
         <v>7.6388888888888618E-2</v>
       </c>
       <c r="D24" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D23)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D23),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D23)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D23),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -5236,7 +2909,7 @@
         <v>7.9861111111110827E-2</v>
       </c>
       <c r="D25" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D24)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D24),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D24)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D24),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -5248,7 +2921,7 @@
         <v>8.3333333333333037E-2</v>
       </c>
       <c r="D26" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D25)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D25),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D25)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D25),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -5260,7 +2933,7 @@
         <v>8.6805555555555247E-2</v>
       </c>
       <c r="D27" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D26)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D26),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D26)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D26),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -5272,7 +2945,7 @@
         <v>9.0277777777777457E-2</v>
       </c>
       <c r="D28" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D27)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D27),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D27)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D27),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -5284,7 +2957,7 @@
         <v>9.3749999999999667E-2</v>
       </c>
       <c r="D29" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D28)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D28),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D28)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D28),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -5296,7 +2969,7 @@
         <v>9.7222222222221877E-2</v>
       </c>
       <c r="D30" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D29)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D29),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D29)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D29),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -5308,7 +2981,7 @@
         <v>0.10069444444444409</v>
       </c>
       <c r="D31" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D30)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D30),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D30)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D30),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -5320,7 +2993,7 @@
         <v>0.1041666666666663</v>
       </c>
       <c r="D32" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D31)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D31),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D31)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D31),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -5332,7 +3005,7 @@
         <v>0.10763888888888851</v>
       </c>
       <c r="D33" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D32)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D32),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D32)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D32),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -5344,7 +3017,7 @@
         <v>0.11111111111111072</v>
       </c>
       <c r="D34" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D33)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D33),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D33)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D33),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -5356,7 +3029,7 @@
         <v>0.11458333333333293</v>
       </c>
       <c r="D35" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D34)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D34),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D34)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D34),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -5368,7 +3041,7 @@
         <v>0.11805555555555514</v>
       </c>
       <c r="D36" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D35)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D35),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D35)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D35),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -5380,7 +3053,7 @@
         <v>0.12152777777777735</v>
       </c>
       <c r="D37" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D36)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D36),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D36)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D36),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -5392,7 +3065,7 @@
         <v>0.12499999999999956</v>
       </c>
       <c r="D38" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D37)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D37),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D37)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D37),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -5404,7 +3077,7 @@
         <v>0.12847222222222177</v>
       </c>
       <c r="D39" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D38)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D38),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D38)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D38),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -5416,7 +3089,7 @@
         <v>0.13194444444444398</v>
       </c>
       <c r="D40" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D39)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D39),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D39)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D39),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -5428,7 +3101,7 @@
         <v>0.13541666666666619</v>
       </c>
       <c r="D41" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D40)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D40),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D40)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D40),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -5440,7 +3113,7 @@
         <v>0.1388888888888884</v>
       </c>
       <c r="D42" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D41)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D41),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D41)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D41),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -5452,7 +3125,7 @@
         <v>0.14236111111111061</v>
       </c>
       <c r="D43" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D42)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D42),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D42)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D42),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -5464,7 +3137,7 @@
         <v>0.14583333333333282</v>
       </c>
       <c r="D44" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D43)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D43),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D43)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D43),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -5476,7 +3149,7 @@
         <v>0.14930555555555503</v>
       </c>
       <c r="D45" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D44)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D44),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D44)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D44),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -5488,7 +3161,7 @@
         <v>0.15277777777777724</v>
       </c>
       <c r="D46" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D45)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D45),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D45)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D45),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -5500,7 +3173,7 @@
         <v>0.15624999999999944</v>
       </c>
       <c r="D47" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D46)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D46),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D46)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D46),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -5512,7 +3185,7 @@
         <v>0.15972222222222165</v>
       </c>
       <c r="D48" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D47)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D47),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D47)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D47),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -5524,7 +3197,7 @@
         <v>0.16319444444444386</v>
       </c>
       <c r="D49" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D48)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D48),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D48)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D48),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -5536,7 +3209,7 @@
         <v>0.16666666666666607</v>
       </c>
       <c r="D50" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D49)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D49),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D49)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D49),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -5548,7 +3221,7 @@
         <v>0.17013888888888828</v>
       </c>
       <c r="D51" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D50)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D50),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D50)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D50),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -5560,7 +3233,7 @@
         <v>0.17361111111111049</v>
       </c>
       <c r="D52" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D51)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D51),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D51)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D51),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -5572,7 +3245,7 @@
         <v>0.1770833333333327</v>
       </c>
       <c r="D53" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D52)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D52),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D52)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D52),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -5584,7 +3257,7 @@
         <v>0.18055555555555491</v>
       </c>
       <c r="D54" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D53)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D53),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D53)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D53),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -5596,7 +3269,7 @@
         <v>0.18402777777777712</v>
       </c>
       <c r="D55" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D54)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D54),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D54)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D54),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -5608,7 +3281,7 @@
         <v>0.18749999999999933</v>
       </c>
       <c r="D56" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D55)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D55),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D55)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D55),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -5620,7 +3293,7 @@
         <v>0.19097222222222154</v>
       </c>
       <c r="D57" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D56)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D56),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D56)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D56),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -5632,7 +3305,7 @@
         <v>0.19444444444444375</v>
       </c>
       <c r="D58" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D57)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D57),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D57)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D57),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -5644,7 +3317,7 @@
         <v>0.19791666666666596</v>
       </c>
       <c r="D59" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D58)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D58),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D58)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D58),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -5656,7 +3329,7 @@
         <v>0.20138888888888817</v>
       </c>
       <c r="D60" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D59)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D59),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D59)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D59),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -5668,7 +3341,7 @@
         <v>0.20486111111111038</v>
       </c>
       <c r="D61" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D60)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D60),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D60)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D60),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -5680,7 +3353,7 @@
         <v>0.20833333333333259</v>
       </c>
       <c r="D62" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D61)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D61),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D61)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D61),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -5692,7 +3365,7 @@
         <v>0.2118055555555548</v>
       </c>
       <c r="D63" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D62)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D62),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D62)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D62),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -5704,7 +3377,7 @@
         <v>0.21527777777777701</v>
       </c>
       <c r="D64" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D63)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D63),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D63)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D63),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -5716,7 +3389,7 @@
         <v>0.21874999999999922</v>
       </c>
       <c r="D65" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D64)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D64),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D64)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D64),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -5728,7 +3401,7 @@
         <v>0.22222222222222143</v>
       </c>
       <c r="D66" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D65)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D65),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D65)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D65),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -5740,7 +3413,7 @@
         <v>0.22569444444444364</v>
       </c>
       <c r="D67" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D66)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D66),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D66)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D66),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -5752,7 +3425,7 @@
         <v>0.22916666666666585</v>
       </c>
       <c r="D68" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D67)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D67),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D67)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D67),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -5764,7 +3437,7 @@
         <v>0.23263888888888806</v>
       </c>
       <c r="D69" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D68)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D68),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D68)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D68),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -5776,7 +3449,7 @@
         <v>0.23611111111111027</v>
       </c>
       <c r="D70" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D69)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D69),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D69)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D69),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -5788,7 +3461,7 @@
         <v>0.23958333333333248</v>
       </c>
       <c r="D71" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D70)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D70),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D70)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D70),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -5800,7 +3473,7 @@
         <v>0.24305555555555469</v>
       </c>
       <c r="D72" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D71)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D71),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D71)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D71),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -5812,7 +3485,7 @@
         <v>0.2465277777777769</v>
       </c>
       <c r="D73" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D72)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D72),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D72)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D72),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -5824,7 +3497,7 @@
         <v>0.24999999999999911</v>
       </c>
       <c r="D74" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D73)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D73),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D73)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D73),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -5836,7 +3509,7 @@
         <v>0.25347222222222132</v>
       </c>
       <c r="D75" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D74)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D74),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D74)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D74),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -5848,7 +3521,7 @@
         <v>0.25694444444444353</v>
       </c>
       <c r="D76" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D75)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D75),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D75)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D75),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -5860,7 +3533,7 @@
         <v>0.26041666666666574</v>
       </c>
       <c r="D77" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D76)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D76),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D76)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D76),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -5872,7 +3545,7 @@
         <v>0.26388888888888795</v>
       </c>
       <c r="D78" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D77)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D77),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D77)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D77),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -5884,7 +3557,7 @@
         <v>0.26736111111111016</v>
       </c>
       <c r="D79" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D78)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D78),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D78)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D78),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -5896,7 +3569,7 @@
         <v>0.27083333333333237</v>
       </c>
       <c r="D80" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D79)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D79),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D79)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D79),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -5908,7 +3581,7 @@
         <v>0.27430555555555458</v>
       </c>
       <c r="D81" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D80)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D80),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D80)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D80),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -5920,7 +3593,7 @@
         <v>0.27777777777777679</v>
       </c>
       <c r="D82" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D81)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D81),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D81)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D81),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -5932,7 +3605,7 @@
         <v>0.281249999999999</v>
       </c>
       <c r="D83" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D82)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D82),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D82)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D82),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -5944,7 +3617,7 @@
         <v>0.28472222222222121</v>
       </c>
       <c r="D84" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D83)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D83),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D83)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D83),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -5956,7 +3629,7 @@
         <v>0.28819444444444342</v>
       </c>
       <c r="D85" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D84)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D84),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D84)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D84),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -5968,7 +3641,7 @@
         <v>0.29166666666666563</v>
       </c>
       <c r="D86" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D85)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D85),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D85)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D85),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -5980,7 +3653,7 @@
         <v>0.29513888888888784</v>
       </c>
       <c r="D87" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D86)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D86),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D86)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D86),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -5992,7 +3665,7 @@
         <v>0.29861111111111005</v>
       </c>
       <c r="D88" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D87)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D87),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D87)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D87),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -6004,7 +3677,7 @@
         <v>0.30208333333333226</v>
       </c>
       <c r="D89" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D88)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D88),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D88)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D88),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -6016,7 +3689,7 @@
         <v>0.30555555555555447</v>
       </c>
       <c r="D90" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D89)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D89),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D89)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D89),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -6028,7 +3701,7 @@
         <v>0.30902777777777668</v>
       </c>
       <c r="D91" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D90)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D90),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D90)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D90),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -6040,7 +3713,7 @@
         <v>0.31249999999999889</v>
       </c>
       <c r="D92" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D91)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D91),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D91)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D91),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -6052,7 +3725,7 @@
         <v>0.3159722222222211</v>
       </c>
       <c r="D93" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D92)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D92),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D92)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D92),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -6064,7 +3737,7 @@
         <v>0.31944444444444331</v>
       </c>
       <c r="D94" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D93)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D93),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D93)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D93),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -6076,7 +3749,7 @@
         <v>0.32291666666666552</v>
       </c>
       <c r="D95" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D94)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D94),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D94)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D94),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -6088,7 +3761,7 @@
         <v>0.32638888888888773</v>
       </c>
       <c r="D96" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D95)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D95),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D95)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D95),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -6100,7 +3773,7 @@
         <v>0.32986111111110994</v>
       </c>
       <c r="D97" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D96)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D96),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D96)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D96),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -6112,7 +3785,7 @@
         <v>0.33333333333333215</v>
       </c>
       <c r="D98" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D97)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D97),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D97)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D97),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -6124,7 +3797,7 @@
         <v>0.33680555555555436</v>
       </c>
       <c r="D99" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D98)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D98),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D98)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D98),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -6136,7 +3809,7 @@
         <v>0.34027777777777657</v>
       </c>
       <c r="D100" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D99)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D99),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D99)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D99),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -6148,7 +3821,7 @@
         <v>0.34374999999999878</v>
       </c>
       <c r="D101" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D100)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D100),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D100)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D100),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -6160,7 +3833,7 @@
         <v>0.34722222222222099</v>
       </c>
       <c r="D102" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D101)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D101),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D101)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D101),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -6172,7 +3845,7 @@
         <v>0.3506944444444432</v>
       </c>
       <c r="D103" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D102)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D102),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D102)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D102),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -6184,7 +3857,7 @@
         <v>0.35416666666666541</v>
       </c>
       <c r="D104" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D103)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D103),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D103)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D103),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -6196,7 +3869,7 @@
         <v>0.35763888888888762</v>
       </c>
       <c r="D105" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D104)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D104),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D104)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D104),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -6208,7 +3881,7 @@
         <v>0.36111111111110983</v>
       </c>
       <c r="D106" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D105)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D105),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D105)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D105),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -6220,7 +3893,7 @@
         <v>0.36458333333333204</v>
       </c>
       <c r="D107" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D106)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D106),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D106)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D106),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -6232,7 +3905,7 @@
         <v>0.36805555555555425</v>
       </c>
       <c r="D108" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D107)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D107),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D107)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D107),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -6244,7 +3917,7 @@
         <v>0.37152777777777646</v>
       </c>
       <c r="D109" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D108)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D108),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D108)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D108),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -6256,7 +3929,7 @@
         <v>0.37499999999999867</v>
       </c>
       <c r="D110" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D109)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D109),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D109)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D109),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -6268,7 +3941,7 @@
         <v>0.37847222222222088</v>
       </c>
       <c r="D111" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D110)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D110),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D110)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D110),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -6280,7 +3953,7 @@
         <v>0.38194444444444309</v>
       </c>
       <c r="D112" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D111)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D111),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D111)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D111),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -6292,7 +3965,7 @@
         <v>0.3854166666666653</v>
       </c>
       <c r="D113" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D112)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D112),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D112)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D112),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -6304,7 +3977,7 @@
         <v>0.38888888888888751</v>
       </c>
       <c r="D114" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D113)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D113),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D113)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D113),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -6316,7 +3989,7 @@
         <v>0.39236111111110972</v>
       </c>
       <c r="D115" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D114)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D114),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D114)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D114),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -6328,7 +4001,7 @@
         <v>0.39583333333333193</v>
       </c>
       <c r="D116" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D115)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D115),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D115)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D115),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -6340,7 +4013,7 @@
         <v>0.39930555555555414</v>
       </c>
       <c r="D117" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D116)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D116),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D116)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D116),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -6352,7 +4025,7 @@
         <v>0.40277777777777635</v>
       </c>
       <c r="D118" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D117)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D117),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D117)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D117),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -6364,7 +4037,7 @@
         <v>0.40624999999999856</v>
       </c>
       <c r="D119" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D118)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D118),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D118)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D118),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -6376,7 +4049,7 @@
         <v>0.40972222222222077</v>
       </c>
       <c r="D120" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D119)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D119),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D119)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D119),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -6388,7 +4061,7 @@
         <v>0.41319444444444298</v>
       </c>
       <c r="D121" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D120)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D120),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D120)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D120),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -6400,7 +4073,7 @@
         <v>0.41666666666666519</v>
       </c>
       <c r="D122" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D121)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D121),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D121)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D121),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -6412,7 +4085,7 @@
         <v>0.4201388888888874</v>
       </c>
       <c r="D123" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D122)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D122),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D122)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D122),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -6424,7 +4097,7 @@
         <v>0.42361111111110961</v>
       </c>
       <c r="D124" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D123)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D123),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D123)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D123),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -6436,7 +4109,7 @@
         <v>0.42708333333333182</v>
       </c>
       <c r="D125" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D124)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D124),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D124)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D124),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -6448,7 +4121,7 @@
         <v>0.43055555555555403</v>
       </c>
       <c r="D126" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D125)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D125),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D125)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D125),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -6460,7 +4133,7 @@
         <v>0.43402777777777624</v>
       </c>
       <c r="D127" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D126)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D126),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D126)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D126),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -6472,7 +4145,7 @@
         <v>0.43749999999999845</v>
       </c>
       <c r="D128" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D127)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D127),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D127)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D127),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -6484,7 +4157,7 @@
         <v>0.44097222222222066</v>
       </c>
       <c r="D129" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D128)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D128),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D128)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D128),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -6496,7 +4169,7 @@
         <v>0.44444444444444287</v>
       </c>
       <c r="D130" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D129)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D129),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D129)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D129),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -6508,7 +4181,7 @@
         <v>0.44791666666666508</v>
       </c>
       <c r="D131" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D130)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D130),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D130)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D130),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -6520,7 +4193,7 @@
         <v>0.45138888888888729</v>
       </c>
       <c r="D132" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D131)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D131),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D131)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D131),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -6532,7 +4205,7 @@
         <v>0.4548611111111095</v>
       </c>
       <c r="D133" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D132)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D132),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D132)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D132),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -6544,7 +4217,7 @@
         <v>0.45833333333333171</v>
       </c>
       <c r="D134" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D133)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D133),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D133)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D133),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -6556,7 +4229,7 @@
         <v>0.46180555555555391</v>
       </c>
       <c r="D135" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D134)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D134),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D134)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D134),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -6568,7 +4241,7 @@
         <v>0.46527777777777612</v>
       </c>
       <c r="D136" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D135)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D135),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D135)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D135),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -6580,7 +4253,7 @@
         <v>0.46874999999999833</v>
       </c>
       <c r="D137" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D136)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D136),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D136)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D136),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -6592,7 +4265,7 @@
         <v>0.47222222222222054</v>
       </c>
       <c r="D138" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D137)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D137),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D137)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D137),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -6604,7 +4277,7 @@
         <v>0.47569444444444275</v>
       </c>
       <c r="D139" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D138)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D138),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D138)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D138),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -6616,7 +4289,7 @@
         <v>0.47916666666666496</v>
       </c>
       <c r="D140" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D139)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D139),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D139)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D139),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -6628,7 +4301,7 @@
         <v>0.48263888888888717</v>
       </c>
       <c r="D141" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D140)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D140),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D140)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D140),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -6640,7 +4313,7 @@
         <v>0.48611111111110938</v>
       </c>
       <c r="D142" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D141)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D141),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D141)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D141),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -6652,7 +4325,7 @@
         <v>0.48958333333333159</v>
       </c>
       <c r="D143" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D142)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D142),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D142)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D142),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -6664,7 +4337,7 @@
         <v>0.4930555555555538</v>
       </c>
       <c r="D144" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D143)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D143),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D143)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D143),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -6676,7 +4349,7 @@
         <v>0.49652777777777601</v>
       </c>
       <c r="D145" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D144)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D144),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D144)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D144),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -6688,7 +4361,7 @@
         <v>0.49999999999999822</v>
       </c>
       <c r="D146" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D145)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D145),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D145)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D145),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -6700,7 +4373,7 @@
         <v>0.50347222222222043</v>
       </c>
       <c r="D147" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D146)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D146),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D146)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D146),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -6712,7 +4385,7 @@
         <v>0.50694444444444264</v>
       </c>
       <c r="D148" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D147)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D147),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D147)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D147),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -6722,7 +4395,7 @@
         <v>0.51041666666666485</v>
       </c>
       <c r="D149" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D148)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D148),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D148)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D148),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -6732,7 +4405,7 @@
         <v>0.51388888888888706</v>
       </c>
       <c r="D150" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D149)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D149),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D149)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D149),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -6742,7 +4415,7 @@
         <v>0.51736111111110927</v>
       </c>
       <c r="D151" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D150)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D150),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D150)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D150),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -6752,7 +4425,7 @@
         <v>0.52083333333333148</v>
       </c>
       <c r="D152" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D151)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D151),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D151)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D151),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -6762,7 +4435,7 @@
         <v>0.52430555555555369</v>
       </c>
       <c r="D153" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D152)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D152),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D152)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D152),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -6772,7 +4445,7 @@
         <v>0.5277777777777759</v>
       </c>
       <c r="D154" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D153)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D153),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D153)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D153),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -6782,7 +4455,7 @@
         <v>0.53124999999999811</v>
       </c>
       <c r="D155" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D154)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D154),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D154)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D154),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -6792,7 +4465,7 @@
         <v>0.53472222222222032</v>
       </c>
       <c r="D156" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D155)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D155),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D155)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D155),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -6802,7 +4475,7 @@
         <v>0.53819444444444253</v>
       </c>
       <c r="D157" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D156)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D156),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D156)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D156),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -6812,7 +4485,7 @@
         <v>0.54166666666666474</v>
       </c>
       <c r="D158" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D157)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D157),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D157)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D157),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -6822,7 +4495,7 @@
         <v>0.54513888888888695</v>
       </c>
       <c r="D159" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D158)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D158),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D158)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D158),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -6832,7 +4505,7 @@
         <v>0.54861111111110916</v>
       </c>
       <c r="D160" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D159)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D159),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D159)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D159),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -6842,7 +4515,7 @@
         <v>0.55208333333333137</v>
       </c>
       <c r="D161" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D160)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D160),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D160)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D160),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -6852,7 +4525,7 @@
         <v>0.55555555555555358</v>
       </c>
       <c r="D162" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D161)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D161),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D161)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D161),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -6862,7 +4535,7 @@
         <v>0.55902777777777579</v>
       </c>
       <c r="D163" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D162)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D162),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D162)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D162),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -6872,7 +4545,7 @@
         <v>0.562499999999998</v>
       </c>
       <c r="D164" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D163)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D163),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D163)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D163),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -6882,7 +4555,7 @@
         <v>0.56597222222222021</v>
       </c>
       <c r="D165" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D164)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D164),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D164)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D164),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -6892,7 +4565,7 @@
         <v>0.56944444444444242</v>
       </c>
       <c r="D166" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D165)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D165),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D165)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D165),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -6902,7 +4575,7 @@
         <v>0.57291666666666463</v>
       </c>
       <c r="D167" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D166)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D166),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D166)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D166),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -6912,7 +4585,7 @@
         <v>0.57638888888888684</v>
       </c>
       <c r="D168" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D167)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D167),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D167)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D167),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -6922,7 +4595,7 @@
         <v>0.57986111111110905</v>
       </c>
       <c r="D169" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D168)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D168),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D168)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D168),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -6932,7 +4605,7 @@
         <v>0.58333333333333126</v>
       </c>
       <c r="D170" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D169)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D169),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D169)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D169),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -6942,7 +4615,7 @@
         <v>0.58680555555555347</v>
       </c>
       <c r="D171" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D170)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D170),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D170)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D170),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -6952,7 +4625,7 @@
         <v>0.59027777777777568</v>
       </c>
       <c r="D172" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D171)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D171),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D171)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D171),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -6962,7 +4635,7 @@
         <v>0.59374999999999789</v>
       </c>
       <c r="D173" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D172)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D172),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D172)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D172),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -6972,7 +4645,7 @@
         <v>0.5972222222222201</v>
       </c>
       <c r="D174" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D173)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D173),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D173)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D173),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -6982,7 +4655,7 @@
         <v>0.60069444444444231</v>
       </c>
       <c r="D175" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D174)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D174),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D174)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D174),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -6992,7 +4665,7 @@
         <v>0.60416666666666452</v>
       </c>
       <c r="D176" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D175)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D175),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D175)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D175),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -7002,7 +4675,7 @@
         <v>0.60763888888888673</v>
       </c>
       <c r="D177" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D176)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D176),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D176)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D176),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -7012,7 +4685,7 @@
         <v>0.61111111111110894</v>
       </c>
       <c r="D178" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D177)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D177),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D177)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D177),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -7022,7 +4695,7 @@
         <v>0.61458333333333115</v>
       </c>
       <c r="D179" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D178)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D178),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D178)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D178),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -7032,7 +4705,7 @@
         <v>0.61805555555555336</v>
       </c>
       <c r="D180" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D179)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D179),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D179)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D179),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -7042,7 +4715,7 @@
         <v>0.62152777777777557</v>
       </c>
       <c r="D181" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D180)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D180),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D180)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D180),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -7052,7 +4725,7 @@
         <v>0.62499999999999778</v>
       </c>
       <c r="D182" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D181)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D181),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D181)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D181),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -7062,7 +4735,7 @@
         <v>0.62847222222221999</v>
       </c>
       <c r="D183" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D182)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D182),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D182)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D182),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -7072,7 +4745,7 @@
         <v>0.6319444444444422</v>
       </c>
       <c r="D184" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D183)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D183),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D183)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D183),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -7082,7 +4755,7 @@
         <v>0.63541666666666441</v>
       </c>
       <c r="D185" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D184)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D184),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D184)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D184),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -7092,7 +4765,7 @@
         <v>0.63888888888888662</v>
       </c>
       <c r="D186" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D185)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D185),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D185)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D185),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -7102,7 +4775,7 @@
         <v>0.64236111111110883</v>
       </c>
       <c r="D187" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D186)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D186),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D186)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D186),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -7112,7 +4785,7 @@
         <v>0.64583333333333104</v>
       </c>
       <c r="D188" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D187)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D187),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D187)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D187),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -7122,7 +4795,7 @@
         <v>0.64930555555555325</v>
       </c>
       <c r="D189" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D188)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D188),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D188)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D188),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -7132,7 +4805,7 @@
         <v>0.65277777777777546</v>
       </c>
       <c r="D190" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D189)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D189),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D189)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D189),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -7142,7 +4815,7 @@
         <v>0.65624999999999767</v>
       </c>
       <c r="D191" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D190)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D190),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D190)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D190),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -7152,7 +4825,7 @@
         <v>0.65972222222221988</v>
       </c>
       <c r="D192" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D191)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D191),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D191)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D191),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -7162,7 +4835,7 @@
         <v>0.66319444444444209</v>
       </c>
       <c r="D193" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D192)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D192),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D192)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D192),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -7172,7 +4845,7 @@
         <v>0.6666666666666643</v>
       </c>
       <c r="D194" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D193)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D193),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D193)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D193),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -7182,7 +4855,7 @@
         <v>0.67013888888888651</v>
       </c>
       <c r="D195" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D194)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D194),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D194)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D194),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -7192,7 +4865,7 @@
         <v>0.67361111111110872</v>
       </c>
       <c r="D196" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D195)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D195),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D195)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D195),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -7202,7 +4875,7 @@
         <v>0.67708333333333093</v>
       </c>
       <c r="D197" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D196)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D196),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D196)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D196),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -7212,7 +4885,7 @@
         <v>0.68055555555555314</v>
       </c>
       <c r="D198" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D197)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D197),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D197)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D197),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -7222,7 +4895,7 @@
         <v>0.68402777777777535</v>
       </c>
       <c r="D199" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D198)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D198),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D198)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D198),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -7232,7 +4905,7 @@
         <v>0.68749999999999756</v>
       </c>
       <c r="D200" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D199)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D199),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D199)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D199),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -7242,7 +4915,7 @@
         <v>0.69097222222221977</v>
       </c>
       <c r="D201" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D200)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D200),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D200)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D200),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -7252,7 +4925,7 @@
         <v>0.69444444444444198</v>
       </c>
       <c r="D202" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D201)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D201),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D201)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D201),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -7262,7 +4935,7 @@
         <v>0.69791666666666419</v>
       </c>
       <c r="D203" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D202)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D202),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D202)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D202),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -7272,7 +4945,7 @@
         <v>0.7013888888888864</v>
       </c>
       <c r="D204" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D203)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D203),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D203)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D203),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -7282,7 +4955,7 @@
         <v>0.70486111111110861</v>
       </c>
       <c r="D205" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D204)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D204),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D204)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D204),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -7292,7 +4965,7 @@
         <v>0.70833333333333082</v>
       </c>
       <c r="D206" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D205)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D205),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D205)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D205),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -7302,7 +4975,7 @@
         <v>0.71180555555555303</v>
       </c>
       <c r="D207" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D206)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D206),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D206)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D206),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -7312,7 +4985,7 @@
         <v>0.71527777777777524</v>
       </c>
       <c r="D208" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D207)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D207),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D207)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D207),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -7322,7 +4995,7 @@
         <v>0.71874999999999745</v>
       </c>
       <c r="D209" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D208)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D208),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D208)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D208),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -7332,7 +5005,7 @@
         <v>0.72222222222221966</v>
       </c>
       <c r="D210" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D209)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D209),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D209)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D209),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -7342,7 +5015,7 @@
         <v>0.72569444444444187</v>
       </c>
       <c r="D211" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D210)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D210),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D210)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D210),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -7352,7 +5025,7 @@
         <v>0.72916666666666408</v>
       </c>
       <c r="D212" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D211)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D211),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D211)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D211),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -7362,7 +5035,7 @@
         <v>0.73263888888888629</v>
       </c>
       <c r="D213" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D212)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D212),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D212)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D212),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -7372,7 +5045,7 @@
         <v>0.7361111111111085</v>
       </c>
       <c r="D214" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D213)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D213),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D213)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D213),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -7382,7 +5055,7 @@
         <v>0.73958333333333071</v>
       </c>
       <c r="D215" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D214)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D214),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D214)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D214),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -7392,7 +5065,7 @@
         <v>0.74305555555555292</v>
       </c>
       <c r="D216" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D215)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D215),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D215)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D215),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -7402,7 +5075,7 @@
         <v>0.74652777777777513</v>
       </c>
       <c r="D217" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D216)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D216),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D216)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D216),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -7412,7 +5085,7 @@
         <v>0.74999999999999734</v>
       </c>
       <c r="D218" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D217)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D217),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D217)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D217),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -7422,7 +5095,7 @@
         <v>0.75347222222221955</v>
       </c>
       <c r="D219" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D218)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D218),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D218)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D218),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -7432,7 +5105,7 @@
         <v>0.75694444444444176</v>
       </c>
       <c r="D220" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D219)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D219),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D219)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D219),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -7442,7 +5115,7 @@
         <v>0.76041666666666397</v>
       </c>
       <c r="D221" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D220)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D220),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D220)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D220),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -7452,7 +5125,7 @@
         <v>0.76388888888888618</v>
       </c>
       <c r="D222" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D221)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D221),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D221)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D221),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -7462,7 +5135,7 @@
         <v>0.76736111111110838</v>
       </c>
       <c r="D223" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D222)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D222),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D222)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D222),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -7472,7 +5145,7 @@
         <v>0.77083333333333059</v>
       </c>
       <c r="D224" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D223)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D223),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D223)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D223),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -7482,7 +5155,7 @@
         <v>0.7743055555555528</v>
       </c>
       <c r="D225" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D224)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D224),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D224)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D224),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -7492,7 +5165,7 @@
         <v>0.77777777777777501</v>
       </c>
       <c r="D226" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D225)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D225),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D225)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D225),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -7502,7 +5175,7 @@
         <v>0.78124999999999722</v>
       </c>
       <c r="D227" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D226)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D226),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D226)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D226),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -7512,7 +5185,7 @@
         <v>0.78472222222221943</v>
       </c>
       <c r="D228" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D227)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D227),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D227)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D227),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -7522,7 +5195,7 @@
         <v>0.78819444444444164</v>
       </c>
       <c r="D229" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D228)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D228),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D228)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D228),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -7532,7 +5205,7 @@
         <v>0.79166666666666385</v>
       </c>
       <c r="D230" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D229)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D229),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D229)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D229),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -7542,7 +5215,7 @@
         <v>0.79513888888888606</v>
       </c>
       <c r="D231" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D230)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D230),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D230)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D230),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -7552,7 +5225,7 @@
         <v>0.79861111111110827</v>
       </c>
       <c r="D232" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D231)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D231),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D231)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D231),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -7562,7 +5235,7 @@
         <v>0.80208333333333048</v>
       </c>
       <c r="D233" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D232)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D232),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D232)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D232),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -7572,7 +5245,7 @@
         <v>0.80555555555555269</v>
       </c>
       <c r="D234" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D233)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D233),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D233)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D233),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -7582,7 +5255,7 @@
         <v>0.8090277777777749</v>
       </c>
       <c r="D235" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D234)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D234),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D234)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D234),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -7592,7 +5265,7 @@
         <v>0.81249999999999711</v>
       </c>
       <c r="D236" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D235)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D235),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D235)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D235),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -7602,7 +5275,7 @@
         <v>0.81597222222221932</v>
       </c>
       <c r="D237" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D236)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D236),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D236)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D236),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -7612,7 +5285,7 @@
         <v>0.81944444444444153</v>
       </c>
       <c r="D238" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D237)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D237),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D237)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D237),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -7622,7 +5295,7 @@
         <v>0.82291666666666374</v>
       </c>
       <c r="D239" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D238)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D238),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D238)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D238),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -7632,7 +5305,7 @@
         <v>0.82638888888888595</v>
       </c>
       <c r="D240" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D239)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D239),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D239)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D239),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -7642,7 +5315,7 @@
         <v>0.82986111111110816</v>
       </c>
       <c r="D241" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D240)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D240),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D240)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D240),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -7652,7 +5325,7 @@
         <v>0.83333333333333037</v>
       </c>
       <c r="D242" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D241)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D241),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D241)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D241),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -7662,7 +5335,7 @@
         <v>0.83680555555555258</v>
       </c>
       <c r="D243" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D242)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D242),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D242)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D242),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -7672,7 +5345,7 @@
         <v>0.84027777777777479</v>
       </c>
       <c r="D244" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D243)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D243),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D243)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D243),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -7682,7 +5355,7 @@
         <v>0.843749999999997</v>
       </c>
       <c r="D245" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D244)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D244),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D244)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D244),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -7692,7 +5365,7 @@
         <v>0.84722222222221921</v>
       </c>
       <c r="D246" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D245)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D245),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D245)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D245),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -7702,7 +5375,7 @@
         <v>0.85069444444444142</v>
       </c>
       <c r="D247" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D246)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D246),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D246)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D246),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -7712,7 +5385,7 @@
         <v>0.85416666666666363</v>
       </c>
       <c r="D248" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D247)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D247),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D247)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D247),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -7722,7 +5395,7 @@
         <v>0.85763888888888584</v>
       </c>
       <c r="D249" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D248)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D248),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D248)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D248),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -7732,7 +5405,7 @@
         <v>0.86111111111110805</v>
       </c>
       <c r="D250" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D249)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D249),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D249)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D249),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -7742,7 +5415,7 @@
         <v>0.86458333333333026</v>
       </c>
       <c r="D251" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D250)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D250),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D250)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D250),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -7752,7 +5425,7 @@
         <v>0.86805555555555247</v>
       </c>
       <c r="D252" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D251)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D251),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D251)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D251),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -7762,7 +5435,7 @@
         <v>0.87152777777777468</v>
       </c>
       <c r="D253" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D252)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D252),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D252)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D252),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -7772,7 +5445,7 @@
         <v>0.87499999999999689</v>
       </c>
       <c r="D254" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D253)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D253),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D253)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D253),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -7782,7 +5455,7 @@
         <v>0.8784722222222191</v>
       </c>
       <c r="D255" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D254)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D254),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D254)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D254),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -7792,7 +5465,7 @@
         <v>0.88194444444444131</v>
       </c>
       <c r="D256" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D255)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D255),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D255)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D255),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -7802,7 +5475,7 @@
         <v>0.88541666666666352</v>
       </c>
       <c r="D257" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D256)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D256),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D256)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D256),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -7812,7 +5485,7 @@
         <v>0.88888888888888573</v>
       </c>
       <c r="D258" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D257)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D257),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D257)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D257),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -7822,7 +5495,7 @@
         <v>0.89236111111110794</v>
       </c>
       <c r="D259" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D258)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D258),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D258)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D258),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -7832,7 +5505,7 @@
         <v>0.89583333333333015</v>
       </c>
       <c r="D260" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D259)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D259),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D259)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D259),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -7842,7 +5515,7 @@
         <v>0.89930555555555236</v>
       </c>
       <c r="D261" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D260)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D260),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D260)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D260),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -7852,7 +5525,7 @@
         <v>0.90277777777777457</v>
       </c>
       <c r="D262" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D261)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D261),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D261)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D261),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -7862,7 +5535,7 @@
         <v>0.90624999999999678</v>
       </c>
       <c r="D263" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D262)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D262),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D262)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D262),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -7872,7 +5545,7 @@
         <v>0.90972222222221899</v>
       </c>
       <c r="D264" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D263)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D263),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D263)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D263),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -7882,7 +5555,7 @@
         <v>0.9131944444444412</v>
       </c>
       <c r="D265" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D264)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D264),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D264)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D264),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -7892,7 +5565,7 @@
         <v>0.91666666666666341</v>
       </c>
       <c r="D266" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D265)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D265),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D265)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D265),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -7902,7 +5575,7 @@
         <v>0.92013888888888562</v>
       </c>
       <c r="D267" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D266)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D266),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D266)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D266),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -7912,7 +5585,7 @@
         <v>0.92361111111110783</v>
       </c>
       <c r="D268" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D267)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D267),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D267)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D267),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -7922,7 +5595,7 @@
         <v>0.92708333333333004</v>
       </c>
       <c r="D269" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D268)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D268),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D268)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D268),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -7932,7 +5605,7 @@
         <v>0.93055555555555225</v>
       </c>
       <c r="D270" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D269)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D269),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D269)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D269),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -7942,7 +5615,7 @@
         <v>0.93402777777777446</v>
       </c>
       <c r="D271" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D270)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D270),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D270)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D270),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -7952,7 +5625,7 @@
         <v>0.93749999999999667</v>
       </c>
       <c r="D272" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D271)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D271),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D271)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D271),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -7962,7 +5635,7 @@
         <v>0.94097222222221888</v>
       </c>
       <c r="D273" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D272)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D272),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D272)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D272),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -7972,7 +5645,7 @@
         <v>0.94444444444444109</v>
       </c>
       <c r="D274" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D273)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D273),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D273)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D273),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -7982,7 +5655,7 @@
         <v>0.9479166666666633</v>
       </c>
       <c r="D275" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D274)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D274),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D274)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D274),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -7992,7 +5665,7 @@
         <v>0.95138888888888551</v>
       </c>
       <c r="D276" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D275)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D275),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D275)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D275),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -8002,7 +5675,7 @@
         <v>0.95486111111110772</v>
       </c>
       <c r="D277" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D276)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D276),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D276)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D276),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -8012,7 +5685,7 @@
         <v>0.95833333333332993</v>
       </c>
       <c r="D278" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D277)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D277),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D277)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D277),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -8022,7 +5695,7 @@
         <v>0.96180555555555214</v>
       </c>
       <c r="D279" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D278)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D278),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D278)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D278),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -8032,7 +5705,7 @@
         <v>0.96527777777777435</v>
       </c>
       <c r="D280" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D279)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D279),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D279)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D279),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -8042,7 +5715,7 @@
         <v>0.96874999999999656</v>
       </c>
       <c r="D281" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D280)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D280),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D280)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D280),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -8052,7 +5725,7 @@
         <v>0.97222222222221877</v>
       </c>
       <c r="D282" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D281)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D281),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D281)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D281),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -8062,7 +5735,7 @@
         <v>0.97569444444444098</v>
       </c>
       <c r="D283" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D282)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D282),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D282)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D282),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -8072,7 +5745,7 @@
         <v>0.97916666666666319</v>
       </c>
       <c r="D284" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D283)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D283),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D283)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D283),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -8082,7 +5755,7 @@
         <v>0.9826388888888854</v>
       </c>
       <c r="D285" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D284)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D284),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D284)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D284),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -8092,7 +5765,7 @@
         <v>0.98611111111110761</v>
       </c>
       <c r="D286" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D285)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D285),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D285)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D285),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -8102,7 +5775,7 @@
         <v>0.98958333333332982</v>
       </c>
       <c r="D287" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D286)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D286),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D286)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D286),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -8112,7 +5785,7 @@
         <v>0.99305555555555203</v>
       </c>
       <c r="D288" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D287)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D287),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D287)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D287),$F$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -8122,7 +5795,7 @@
         <v>0.99652777777777424</v>
       </c>
       <c r="D289" s="3">
-        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D288)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D288),0)</f>
+        <f>IF(ISNUMBER(IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D288)),IF(ISNUMBER(Data3[[#This Row],[Temperature]]),Data3[[#This Row],[Temperature]],D288),$F$4)</f>
         <v>0</v>
       </c>
     </row>

--- a/TempTemplate.xlsx
+++ b/TempTemplate.xlsx
@@ -1,33 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bu\Documents\raspberry-pi-MCP9808-email-logger\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F9D57EE-9C78-4DA9-A400-7501FB1327FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{AA65FC43-8ACF-A048-91B2-83B0AB69F1B2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{84071BE4-31F6-4890-94C9-3F2408C79C0A}"/>
   </bookViews>
   <sheets>
     <sheet name="Temp" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="179020"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -2569,21 +2560,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{164F94F5-B1E2-40E2-B85E-95176B9313BD}">
   <dimension ref="A1:F289"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0" xr3:uid="{1139D250-FC88-5DC8-8120-82EC8BC8CD91}">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="21.85546875" style="2" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="21.7890625" style="2" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="6.3203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.22265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.2578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.27734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2597,7 +2588,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
       <c r="B2"/>
       <c r="C2" s="1">
@@ -2612,11 +2603,11 @@
         <v>2</v>
       </c>
       <c r="F2" s="6">
-        <f>MIN(Data3[[#This Row],[Temperature]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <f>MIN(Data3[Temperature])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
       <c r="B3"/>
       <c r="C3" s="1">
@@ -2635,7 +2626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
       <c r="B4"/>
       <c r="C4" s="1">
@@ -2654,7 +2645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5"/>
       <c r="C5" s="1">
@@ -2673,7 +2664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6"/>
       <c r="C6" s="1">
@@ -2685,7 +2676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7"/>
       <c r="C7" s="1">
@@ -2697,7 +2688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
       <c r="B8"/>
       <c r="C8" s="1">
@@ -2709,7 +2700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9"/>
       <c r="C9" s="1">
@@ -2721,7 +2712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="B10"/>
       <c r="C10" s="1">
@@ -2733,7 +2724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11"/>
       <c r="C11" s="1">
@@ -2745,7 +2736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
       <c r="B12"/>
       <c r="C12" s="1">
@@ -2757,7 +2748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
       <c r="B13"/>
       <c r="C13" s="1">
@@ -2769,7 +2760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
       <c r="B14"/>
       <c r="C14" s="1">
@@ -2781,7 +2772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15"/>
       <c r="C15" s="1">
@@ -2793,7 +2784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16"/>
       <c r="C16" s="1">
@@ -2805,7 +2796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17"/>
       <c r="C17" s="1">
@@ -2817,7 +2808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
       <c r="B18"/>
       <c r="C18" s="1">
@@ -2829,7 +2820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
       <c r="B19"/>
       <c r="C19" s="1">
@@ -2841,7 +2832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
       <c r="B20"/>
       <c r="C20" s="1">
@@ -2853,7 +2844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
       <c r="B21"/>
       <c r="C21" s="1">
@@ -2865,7 +2856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
       <c r="B22"/>
       <c r="C22" s="1">
@@ -2877,7 +2868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
       <c r="B23"/>
       <c r="C23" s="1">
@@ -2889,7 +2880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
       <c r="B24"/>
       <c r="C24" s="1">
@@ -2901,7 +2892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
       <c r="B25"/>
       <c r="C25" s="1">
@@ -2913,7 +2904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="4"/>
       <c r="B26"/>
       <c r="C26" s="1">
@@ -2925,7 +2916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
       <c r="B27"/>
       <c r="C27" s="1">
@@ -2937,7 +2928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
       <c r="B28"/>
       <c r="C28" s="1">
@@ -2949,7 +2940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
       <c r="B29"/>
       <c r="C29" s="1">
@@ -2961,7 +2952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
       <c r="B30"/>
       <c r="C30" s="1">
@@ -2973,7 +2964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="4"/>
       <c r="B31"/>
       <c r="C31" s="1">
@@ -2985,7 +2976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
       <c r="B32"/>
       <c r="C32" s="1">
@@ -2997,7 +2988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
       <c r="B33"/>
       <c r="C33" s="1">
@@ -3009,7 +3000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
       <c r="B34"/>
       <c r="C34" s="1">
@@ -3021,7 +3012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="4"/>
       <c r="B35"/>
       <c r="C35" s="1">
@@ -3033,7 +3024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="4"/>
       <c r="B36"/>
       <c r="C36" s="1">
@@ -3045,7 +3036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
       <c r="B37"/>
       <c r="C37" s="1">
@@ -3057,7 +3048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38"/>
       <c r="C38" s="1">
@@ -3069,7 +3060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="4"/>
       <c r="B39"/>
       <c r="C39" s="1">
@@ -3081,7 +3072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="4"/>
       <c r="B40"/>
       <c r="C40" s="1">
@@ -3093,7 +3084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="4"/>
       <c r="B41"/>
       <c r="C41" s="1">
@@ -3105,7 +3096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="4"/>
       <c r="B42"/>
       <c r="C42" s="1">
@@ -3117,7 +3108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="4"/>
       <c r="B43"/>
       <c r="C43" s="1">
@@ -3129,7 +3120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="4"/>
       <c r="B44"/>
       <c r="C44" s="1">
@@ -3141,7 +3132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="4"/>
       <c r="B45"/>
       <c r="C45" s="1">
@@ -3153,7 +3144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="4"/>
       <c r="B46"/>
       <c r="C46" s="1">
@@ -3165,7 +3156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="4"/>
       <c r="B47"/>
       <c r="C47" s="1">
@@ -3177,7 +3168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="4"/>
       <c r="B48"/>
       <c r="C48" s="1">
@@ -3189,7 +3180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="4"/>
       <c r="B49"/>
       <c r="C49" s="1">
@@ -3201,7 +3192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="4"/>
       <c r="B50"/>
       <c r="C50" s="1">
@@ -3213,7 +3204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="4"/>
       <c r="B51"/>
       <c r="C51" s="1">
@@ -3225,7 +3216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="4"/>
       <c r="B52"/>
       <c r="C52" s="1">
@@ -3237,7 +3228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="4"/>
       <c r="B53"/>
       <c r="C53" s="1">
@@ -3249,7 +3240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="4"/>
       <c r="B54"/>
       <c r="C54" s="1">
@@ -3261,7 +3252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="4"/>
       <c r="B55"/>
       <c r="C55" s="1">
@@ -3273,7 +3264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="4"/>
       <c r="B56"/>
       <c r="C56" s="1">
@@ -3285,7 +3276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="4"/>
       <c r="B57"/>
       <c r="C57" s="1">
@@ -3297,7 +3288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="4"/>
       <c r="B58"/>
       <c r="C58" s="1">
@@ -3309,7 +3300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="4"/>
       <c r="B59"/>
       <c r="C59" s="1">
@@ -3321,7 +3312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="4"/>
       <c r="B60"/>
       <c r="C60" s="1">
@@ -3333,7 +3324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="4"/>
       <c r="B61"/>
       <c r="C61" s="1">
@@ -3345,7 +3336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="4"/>
       <c r="B62"/>
       <c r="C62" s="1">
@@ -3357,7 +3348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="4"/>
       <c r="B63"/>
       <c r="C63" s="1">
@@ -3369,7 +3360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="4"/>
       <c r="B64"/>
       <c r="C64" s="1">
@@ -3381,7 +3372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="4"/>
       <c r="B65"/>
       <c r="C65" s="1">
@@ -3393,7 +3384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="4"/>
       <c r="B66"/>
       <c r="C66" s="1">
@@ -3405,7 +3396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="4"/>
       <c r="B67"/>
       <c r="C67" s="1">
@@ -3417,7 +3408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="4"/>
       <c r="B68"/>
       <c r="C68" s="1">
@@ -3429,7 +3420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="4"/>
       <c r="B69"/>
       <c r="C69" s="1">
@@ -3441,7 +3432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="4"/>
       <c r="B70"/>
       <c r="C70" s="1">
@@ -3453,7 +3444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="4"/>
       <c r="B71"/>
       <c r="C71" s="1">
@@ -3465,7 +3456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="4"/>
       <c r="B72"/>
       <c r="C72" s="1">
@@ -3477,7 +3468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="4"/>
       <c r="B73"/>
       <c r="C73" s="1">
@@ -3489,7 +3480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="4"/>
       <c r="B74"/>
       <c r="C74" s="1">
@@ -3501,7 +3492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="4"/>
       <c r="B75"/>
       <c r="C75" s="1">
@@ -3513,7 +3504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="4"/>
       <c r="B76"/>
       <c r="C76" s="1">
@@ -3525,7 +3516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="4"/>
       <c r="B77"/>
       <c r="C77" s="1">
@@ -3537,7 +3528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="4"/>
       <c r="B78"/>
       <c r="C78" s="1">
@@ -3549,7 +3540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="4"/>
       <c r="B79"/>
       <c r="C79" s="1">
@@ -3561,7 +3552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="4"/>
       <c r="B80"/>
       <c r="C80" s="1">
@@ -3573,7 +3564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="4"/>
       <c r="B81"/>
       <c r="C81" s="1">
@@ -3585,7 +3576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="4"/>
       <c r="B82"/>
       <c r="C82" s="1">
@@ -3597,7 +3588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="4"/>
       <c r="B83"/>
       <c r="C83" s="1">
@@ -3609,7 +3600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="4"/>
       <c r="B84"/>
       <c r="C84" s="1">
@@ -3621,7 +3612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="4"/>
       <c r="B85"/>
       <c r="C85" s="1">
@@ -3633,7 +3624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="4"/>
       <c r="B86"/>
       <c r="C86" s="1">
@@ -3645,7 +3636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="4"/>
       <c r="B87"/>
       <c r="C87" s="1">
@@ -3657,7 +3648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="4"/>
       <c r="B88"/>
       <c r="C88" s="1">
@@ -3669,7 +3660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="4"/>
       <c r="B89"/>
       <c r="C89" s="1">
@@ -3681,7 +3672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="4"/>
       <c r="B90"/>
       <c r="C90" s="1">
@@ -3693,7 +3684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="4"/>
       <c r="B91"/>
       <c r="C91" s="1">
@@ -3705,7 +3696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="4"/>
       <c r="B92"/>
       <c r="C92" s="1">
@@ -3717,7 +3708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="4"/>
       <c r="B93"/>
       <c r="C93" s="1">
@@ -3729,7 +3720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="4"/>
       <c r="B94"/>
       <c r="C94" s="1">
@@ -3741,7 +3732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="4"/>
       <c r="B95"/>
       <c r="C95" s="1">
@@ -3753,7 +3744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="4"/>
       <c r="B96"/>
       <c r="C96" s="1">
@@ -3765,7 +3756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="4"/>
       <c r="B97"/>
       <c r="C97" s="1">
@@ -3777,7 +3768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="4"/>
       <c r="B98"/>
       <c r="C98" s="1">
@@ -3789,7 +3780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="4"/>
       <c r="B99"/>
       <c r="C99" s="1">
@@ -3801,7 +3792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="4"/>
       <c r="B100"/>
       <c r="C100" s="1">
@@ -3813,7 +3804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="4"/>
       <c r="B101"/>
       <c r="C101" s="1">
@@ -3825,7 +3816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="4"/>
       <c r="B102"/>
       <c r="C102" s="1">
@@ -3837,7 +3828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="4"/>
       <c r="B103"/>
       <c r="C103" s="1">
@@ -3849,7 +3840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="4"/>
       <c r="B104"/>
       <c r="C104" s="1">
@@ -3861,7 +3852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" s="4"/>
       <c r="B105"/>
       <c r="C105" s="1">
@@ -3873,7 +3864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="4"/>
       <c r="B106"/>
       <c r="C106" s="1">
@@ -3885,7 +3876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" s="4"/>
       <c r="B107"/>
       <c r="C107" s="1">
@@ -3897,7 +3888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" s="4"/>
       <c r="B108"/>
       <c r="C108" s="1">
@@ -3909,7 +3900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" s="4"/>
       <c r="B109"/>
       <c r="C109" s="1">
@@ -3921,7 +3912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="4"/>
       <c r="B110"/>
       <c r="C110" s="1">
@@ -3933,7 +3924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="4"/>
       <c r="B111"/>
       <c r="C111" s="1">
@@ -3945,7 +3936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" s="4"/>
       <c r="B112"/>
       <c r="C112" s="1">
@@ -3957,7 +3948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" s="4"/>
       <c r="B113"/>
       <c r="C113" s="1">
@@ -3969,7 +3960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" s="4"/>
       <c r="B114"/>
       <c r="C114" s="1">
@@ -3981,7 +3972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" s="4"/>
       <c r="B115"/>
       <c r="C115" s="1">
@@ -3993,7 +3984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" s="4"/>
       <c r="B116"/>
       <c r="C116" s="1">
@@ -4005,7 +3996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" s="4"/>
       <c r="B117"/>
       <c r="C117" s="1">
@@ -4017,7 +4008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" s="4"/>
       <c r="B118"/>
       <c r="C118" s="1">
@@ -4029,7 +4020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" s="4"/>
       <c r="B119"/>
       <c r="C119" s="1">
@@ -4041,7 +4032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" s="4"/>
       <c r="B120"/>
       <c r="C120" s="1">
@@ -4053,7 +4044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="4"/>
       <c r="B121"/>
       <c r="C121" s="1">
@@ -4065,7 +4056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" s="4"/>
       <c r="B122"/>
       <c r="C122" s="1">
@@ -4077,7 +4068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" s="4"/>
       <c r="B123"/>
       <c r="C123" s="1">
@@ -4089,7 +4080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" s="4"/>
       <c r="B124"/>
       <c r="C124" s="1">
@@ -4101,7 +4092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" s="4"/>
       <c r="B125"/>
       <c r="C125" s="1">
@@ -4113,7 +4104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" s="4"/>
       <c r="B126"/>
       <c r="C126" s="1">
@@ -4125,7 +4116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" s="4"/>
       <c r="B127"/>
       <c r="C127" s="1">
@@ -4137,7 +4128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" s="4"/>
       <c r="B128"/>
       <c r="C128" s="1">
@@ -4149,7 +4140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" s="4"/>
       <c r="B129"/>
       <c r="C129" s="1">
@@ -4161,7 +4152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" s="4"/>
       <c r="B130"/>
       <c r="C130" s="1">
@@ -4173,7 +4164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" s="4"/>
       <c r="B131"/>
       <c r="C131" s="1">
@@ -4185,7 +4176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" s="4"/>
       <c r="B132"/>
       <c r="C132" s="1">
@@ -4197,7 +4188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" s="4"/>
       <c r="B133"/>
       <c r="C133" s="1">
@@ -4209,7 +4200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" s="4"/>
       <c r="B134"/>
       <c r="C134" s="1">
@@ -4221,7 +4212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" s="4"/>
       <c r="B135"/>
       <c r="C135" s="1">
@@ -4233,7 +4224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" s="4"/>
       <c r="B136"/>
       <c r="C136" s="1">
@@ -4245,7 +4236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" s="4"/>
       <c r="B137"/>
       <c r="C137" s="1">
@@ -4257,7 +4248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" s="4"/>
       <c r="B138"/>
       <c r="C138" s="1">
@@ -4269,7 +4260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" s="4"/>
       <c r="B139"/>
       <c r="C139" s="1">
@@ -4281,7 +4272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" s="4"/>
       <c r="B140"/>
       <c r="C140" s="1">
@@ -4293,7 +4284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" s="4"/>
       <c r="B141"/>
       <c r="C141" s="1">
@@ -4305,7 +4296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" s="4"/>
       <c r="B142"/>
       <c r="C142" s="1">
@@ -4317,7 +4308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" s="4"/>
       <c r="B143"/>
       <c r="C143" s="1">
@@ -4329,7 +4320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" s="4"/>
       <c r="B144"/>
       <c r="C144" s="1">
@@ -4341,7 +4332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" s="4"/>
       <c r="B145"/>
       <c r="C145" s="1">
@@ -4353,7 +4344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" s="4"/>
       <c r="B146"/>
       <c r="C146" s="1">
@@ -4365,7 +4356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" s="4"/>
       <c r="B147"/>
       <c r="C147" s="1">
@@ -4377,7 +4368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" s="4"/>
       <c r="B148"/>
       <c r="C148" s="1">
@@ -4389,7 +4380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C149" s="1">
         <f t="shared" si="2"/>
         <v>0.51041666666666485</v>
@@ -4399,7 +4390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C150" s="1">
         <f t="shared" si="2"/>
         <v>0.51388888888888706</v>
@@ -4409,7 +4400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C151" s="1">
         <f t="shared" si="2"/>
         <v>0.51736111111110927</v>
@@ -4419,7 +4410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C152" s="1">
         <f t="shared" si="2"/>
         <v>0.52083333333333148</v>
@@ -4429,7 +4420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C153" s="1">
         <f t="shared" si="2"/>
         <v>0.52430555555555369</v>
@@ -4439,7 +4430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C154" s="1">
         <f t="shared" si="2"/>
         <v>0.5277777777777759</v>
@@ -4449,7 +4440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C155" s="1">
         <f t="shared" si="2"/>
         <v>0.53124999999999811</v>
@@ -4459,7 +4450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C156" s="1">
         <f t="shared" si="2"/>
         <v>0.53472222222222032</v>
@@ -4469,7 +4460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C157" s="1">
         <f t="shared" si="2"/>
         <v>0.53819444444444253</v>
@@ -4479,7 +4470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C158" s="1">
         <f t="shared" si="2"/>
         <v>0.54166666666666474</v>
@@ -4489,7 +4480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C159" s="1">
         <f t="shared" si="2"/>
         <v>0.54513888888888695</v>
@@ -4499,7 +4490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C160" s="1">
         <f t="shared" si="2"/>
         <v>0.54861111111110916</v>
@@ -4509,7 +4500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C161" s="1">
         <f t="shared" si="2"/>
         <v>0.55208333333333137</v>
@@ -4519,7 +4510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C162" s="1">
         <f t="shared" si="2"/>
         <v>0.55555555555555358</v>
@@ -4529,7 +4520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C163" s="1">
         <f t="shared" si="2"/>
         <v>0.55902777777777579</v>
@@ -4539,7 +4530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C164" s="1">
         <f t="shared" si="2"/>
         <v>0.562499999999998</v>
@@ -4549,7 +4540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C165" s="1">
         <f t="shared" si="2"/>
         <v>0.56597222222222021</v>
@@ -4559,7 +4550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C166" s="1">
         <f t="shared" si="2"/>
         <v>0.56944444444444242</v>
@@ -4569,7 +4560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C167" s="1">
         <f t="shared" si="2"/>
         <v>0.57291666666666463</v>
@@ -4579,7 +4570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C168" s="1">
         <f t="shared" si="2"/>
         <v>0.57638888888888684</v>
@@ -4589,7 +4580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C169" s="1">
         <f t="shared" si="2"/>
         <v>0.57986111111110905</v>
@@ -4599,7 +4590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C170" s="1">
         <f t="shared" si="2"/>
         <v>0.58333333333333126</v>
@@ -4609,7 +4600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C171" s="1">
         <f t="shared" si="2"/>
         <v>0.58680555555555347</v>
@@ -4619,7 +4610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C172" s="1">
         <f t="shared" si="2"/>
         <v>0.59027777777777568</v>
@@ -4629,7 +4620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C173" s="1">
         <f t="shared" si="2"/>
         <v>0.59374999999999789</v>
@@ -4639,7 +4630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C174" s="1">
         <f t="shared" si="2"/>
         <v>0.5972222222222201</v>
@@ -4649,7 +4640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C175" s="1">
         <f t="shared" si="2"/>
         <v>0.60069444444444231</v>
@@ -4659,7 +4650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C176" s="1">
         <f t="shared" si="2"/>
         <v>0.60416666666666452</v>
@@ -4669,7 +4660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C177" s="1">
         <f t="shared" si="2"/>
         <v>0.60763888888888673</v>
@@ -4679,7 +4670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C178" s="1">
         <f t="shared" si="2"/>
         <v>0.61111111111110894</v>
@@ -4689,7 +4680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C179" s="1">
         <f t="shared" si="2"/>
         <v>0.61458333333333115</v>
@@ -4699,7 +4690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C180" s="1">
         <f t="shared" si="2"/>
         <v>0.61805555555555336</v>
@@ -4709,7 +4700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C181" s="1">
         <f t="shared" si="2"/>
         <v>0.62152777777777557</v>
@@ -4719,7 +4710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C182" s="1">
         <f t="shared" si="2"/>
         <v>0.62499999999999778</v>
@@ -4729,7 +4720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C183" s="1">
         <f t="shared" si="2"/>
         <v>0.62847222222221999</v>
@@ -4739,7 +4730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C184" s="1">
         <f t="shared" si="2"/>
         <v>0.6319444444444422</v>
@@ -4749,7 +4740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C185" s="1">
         <f t="shared" si="2"/>
         <v>0.63541666666666441</v>
@@ -4759,7 +4750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C186" s="1">
         <f t="shared" si="2"/>
         <v>0.63888888888888662</v>
@@ -4769,7 +4760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C187" s="1">
         <f t="shared" si="2"/>
         <v>0.64236111111110883</v>
@@ -4779,7 +4770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C188" s="1">
         <f t="shared" si="2"/>
         <v>0.64583333333333104</v>
@@ -4789,7 +4780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C189" s="1">
         <f t="shared" si="2"/>
         <v>0.64930555555555325</v>
@@ -4799,7 +4790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C190" s="1">
         <f t="shared" si="2"/>
         <v>0.65277777777777546</v>
@@ -4809,7 +4800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C191" s="1">
         <f t="shared" si="2"/>
         <v>0.65624999999999767</v>
@@ -4819,7 +4810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C192" s="1">
         <f t="shared" si="2"/>
         <v>0.65972222222221988</v>
@@ -4829,7 +4820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C193" s="1">
         <f t="shared" si="2"/>
         <v>0.66319444444444209</v>
@@ -4839,7 +4830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C194" s="1">
         <f t="shared" ref="C194:C257" si="3">IFERROR(IF(TIME(HOUR(A194),MINUTE(A194),0) = 0,C193+0.00347222222222221,TIME(HOUR(A194),MINUTE(A194),0)),0)</f>
         <v>0.6666666666666643</v>
@@ -4849,7 +4840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C195" s="1">
         <f t="shared" si="3"/>
         <v>0.67013888888888651</v>
@@ -4859,7 +4850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C196" s="1">
         <f t="shared" si="3"/>
         <v>0.67361111111110872</v>
@@ -4869,7 +4860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C197" s="1">
         <f t="shared" si="3"/>
         <v>0.67708333333333093</v>
@@ -4879,7 +4870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C198" s="1">
         <f t="shared" si="3"/>
         <v>0.68055555555555314</v>
@@ -4889,7 +4880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C199" s="1">
         <f t="shared" si="3"/>
         <v>0.68402777777777535</v>
@@ -4899,7 +4890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C200" s="1">
         <f t="shared" si="3"/>
         <v>0.68749999999999756</v>
@@ -4909,7 +4900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C201" s="1">
         <f t="shared" si="3"/>
         <v>0.69097222222221977</v>
@@ -4919,7 +4910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C202" s="1">
         <f t="shared" si="3"/>
         <v>0.69444444444444198</v>
@@ -4929,7 +4920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C203" s="1">
         <f t="shared" si="3"/>
         <v>0.69791666666666419</v>
@@ -4939,7 +4930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="204" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C204" s="1">
         <f t="shared" si="3"/>
         <v>0.7013888888888864</v>
@@ -4949,7 +4940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="205" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C205" s="1">
         <f t="shared" si="3"/>
         <v>0.70486111111110861</v>
@@ -4959,7 +4950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C206" s="1">
         <f t="shared" si="3"/>
         <v>0.70833333333333082</v>
@@ -4969,7 +4960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="207" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C207" s="1">
         <f t="shared" si="3"/>
         <v>0.71180555555555303</v>
@@ -4979,7 +4970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="208" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C208" s="1">
         <f t="shared" si="3"/>
         <v>0.71527777777777524</v>
@@ -4989,7 +4980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="209" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C209" s="1">
         <f t="shared" si="3"/>
         <v>0.71874999999999745</v>
@@ -4999,7 +4990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="210" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C210" s="1">
         <f t="shared" si="3"/>
         <v>0.72222222222221966</v>
@@ -5009,7 +5000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="211" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C211" s="1">
         <f t="shared" si="3"/>
         <v>0.72569444444444187</v>
@@ -5019,7 +5010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="212" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C212" s="1">
         <f t="shared" si="3"/>
         <v>0.72916666666666408</v>
@@ -5029,7 +5020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="213" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C213" s="1">
         <f t="shared" si="3"/>
         <v>0.73263888888888629</v>
@@ -5039,7 +5030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="214" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C214" s="1">
         <f t="shared" si="3"/>
         <v>0.7361111111111085</v>
@@ -5049,7 +5040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="215" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C215" s="1">
         <f t="shared" si="3"/>
         <v>0.73958333333333071</v>
@@ -5059,7 +5050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="216" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C216" s="1">
         <f t="shared" si="3"/>
         <v>0.74305555555555292</v>
@@ -5069,7 +5060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="217" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C217" s="1">
         <f t="shared" si="3"/>
         <v>0.74652777777777513</v>
@@ -5079,7 +5070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="218" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C218" s="1">
         <f t="shared" si="3"/>
         <v>0.74999999999999734</v>
@@ -5089,7 +5080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="219" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C219" s="1">
         <f t="shared" si="3"/>
         <v>0.75347222222221955</v>
@@ -5099,7 +5090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="220" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C220" s="1">
         <f t="shared" si="3"/>
         <v>0.75694444444444176</v>
@@ -5109,7 +5100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="221" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C221" s="1">
         <f t="shared" si="3"/>
         <v>0.76041666666666397</v>
@@ -5119,7 +5110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="222" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C222" s="1">
         <f t="shared" si="3"/>
         <v>0.76388888888888618</v>
@@ -5129,7 +5120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="223" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C223" s="1">
         <f t="shared" si="3"/>
         <v>0.76736111111110838</v>
@@ -5139,7 +5130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="224" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C224" s="1">
         <f t="shared" si="3"/>
         <v>0.77083333333333059</v>
@@ -5149,7 +5140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="225" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C225" s="1">
         <f t="shared" si="3"/>
         <v>0.7743055555555528</v>
@@ -5159,7 +5150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="226" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C226" s="1">
         <f t="shared" si="3"/>
         <v>0.77777777777777501</v>
@@ -5169,7 +5160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="227" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C227" s="1">
         <f t="shared" si="3"/>
         <v>0.78124999999999722</v>
@@ -5179,7 +5170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="228" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C228" s="1">
         <f t="shared" si="3"/>
         <v>0.78472222222221943</v>
@@ -5189,7 +5180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="229" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C229" s="1">
         <f t="shared" si="3"/>
         <v>0.78819444444444164</v>
@@ -5199,7 +5190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="230" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C230" s="1">
         <f t="shared" si="3"/>
         <v>0.79166666666666385</v>
@@ -5209,7 +5200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="231" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C231" s="1">
         <f t="shared" si="3"/>
         <v>0.79513888888888606</v>
@@ -5219,7 +5210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="232" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C232" s="1">
         <f t="shared" si="3"/>
         <v>0.79861111111110827</v>
@@ -5229,7 +5220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="233" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C233" s="1">
         <f t="shared" si="3"/>
         <v>0.80208333333333048</v>
@@ -5239,7 +5230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="234" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C234" s="1">
         <f t="shared" si="3"/>
         <v>0.80555555555555269</v>
@@ -5249,7 +5240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="235" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C235" s="1">
         <f t="shared" si="3"/>
         <v>0.8090277777777749</v>
@@ -5259,7 +5250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="236" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C236" s="1">
         <f t="shared" si="3"/>
         <v>0.81249999999999711</v>
@@ -5269,7 +5260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="237" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C237" s="1">
         <f t="shared" si="3"/>
         <v>0.81597222222221932</v>
@@ -5279,7 +5270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="238" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C238" s="1">
         <f t="shared" si="3"/>
         <v>0.81944444444444153</v>
@@ -5289,7 +5280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="239" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C239" s="1">
         <f t="shared" si="3"/>
         <v>0.82291666666666374</v>
@@ -5299,7 +5290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="240" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C240" s="1">
         <f t="shared" si="3"/>
         <v>0.82638888888888595</v>
@@ -5309,7 +5300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="241" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C241" s="1">
         <f t="shared" si="3"/>
         <v>0.82986111111110816</v>
@@ -5319,7 +5310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="242" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C242" s="1">
         <f t="shared" si="3"/>
         <v>0.83333333333333037</v>
@@ -5329,7 +5320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="243" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C243" s="1">
         <f t="shared" si="3"/>
         <v>0.83680555555555258</v>
@@ -5339,7 +5330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="244" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C244" s="1">
         <f t="shared" si="3"/>
         <v>0.84027777777777479</v>
@@ -5349,7 +5340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="245" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C245" s="1">
         <f t="shared" si="3"/>
         <v>0.843749999999997</v>
@@ -5359,7 +5350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="246" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C246" s="1">
         <f t="shared" si="3"/>
         <v>0.84722222222221921</v>
@@ -5369,7 +5360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="247" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C247" s="1">
         <f t="shared" si="3"/>
         <v>0.85069444444444142</v>
@@ -5379,7 +5370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="248" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C248" s="1">
         <f t="shared" si="3"/>
         <v>0.85416666666666363</v>
@@ -5389,7 +5380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="249" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C249" s="1">
         <f t="shared" si="3"/>
         <v>0.85763888888888584</v>
@@ -5399,7 +5390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="250" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C250" s="1">
         <f t="shared" si="3"/>
         <v>0.86111111111110805</v>
@@ -5409,7 +5400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="251" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C251" s="1">
         <f t="shared" si="3"/>
         <v>0.86458333333333026</v>
@@ -5419,7 +5410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="252" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C252" s="1">
         <f t="shared" si="3"/>
         <v>0.86805555555555247</v>
@@ -5429,7 +5420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="253" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C253" s="1">
         <f t="shared" si="3"/>
         <v>0.87152777777777468</v>
@@ -5439,7 +5430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="254" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C254" s="1">
         <f t="shared" si="3"/>
         <v>0.87499999999999689</v>
@@ -5449,7 +5440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="255" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C255" s="1">
         <f t="shared" si="3"/>
         <v>0.8784722222222191</v>
@@ -5459,7 +5450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="256" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C256" s="1">
         <f t="shared" si="3"/>
         <v>0.88194444444444131</v>
@@ -5469,7 +5460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="257" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C257" s="1">
         <f t="shared" si="3"/>
         <v>0.88541666666666352</v>
@@ -5479,7 +5470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="258" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C258" s="1">
         <f t="shared" ref="C258:C289" si="4">IFERROR(IF(TIME(HOUR(A258),MINUTE(A258),0) = 0,C257+0.00347222222222221,TIME(HOUR(A258),MINUTE(A258),0)),0)</f>
         <v>0.88888888888888573</v>
@@ -5489,7 +5480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="259" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C259" s="1">
         <f t="shared" si="4"/>
         <v>0.89236111111110794</v>
@@ -5499,7 +5490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="260" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C260" s="1">
         <f t="shared" si="4"/>
         <v>0.89583333333333015</v>
@@ -5509,7 +5500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="261" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C261" s="1">
         <f t="shared" si="4"/>
         <v>0.89930555555555236</v>
@@ -5519,7 +5510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="262" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C262" s="1">
         <f t="shared" si="4"/>
         <v>0.90277777777777457</v>
@@ -5529,7 +5520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="263" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C263" s="1">
         <f t="shared" si="4"/>
         <v>0.90624999999999678</v>
@@ -5539,7 +5530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="264" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C264" s="1">
         <f t="shared" si="4"/>
         <v>0.90972222222221899</v>
@@ -5549,7 +5540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="265" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C265" s="1">
         <f t="shared" si="4"/>
         <v>0.9131944444444412</v>
@@ -5559,7 +5550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="266" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C266" s="1">
         <f t="shared" si="4"/>
         <v>0.91666666666666341</v>
@@ -5569,7 +5560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="267" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C267" s="1">
         <f t="shared" si="4"/>
         <v>0.92013888888888562</v>
@@ -5579,7 +5570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="268" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C268" s="1">
         <f t="shared" si="4"/>
         <v>0.92361111111110783</v>
@@ -5589,7 +5580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="269" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C269" s="1">
         <f t="shared" si="4"/>
         <v>0.92708333333333004</v>
@@ -5599,7 +5590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="270" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C270" s="1">
         <f t="shared" si="4"/>
         <v>0.93055555555555225</v>
@@ -5609,7 +5600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="271" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C271" s="1">
         <f t="shared" si="4"/>
         <v>0.93402777777777446</v>
@@ -5619,7 +5610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="272" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C272" s="1">
         <f t="shared" si="4"/>
         <v>0.93749999999999667</v>
@@ -5629,7 +5620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="273" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C273" s="1">
         <f t="shared" si="4"/>
         <v>0.94097222222221888</v>
@@ -5639,7 +5630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="274" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C274" s="1">
         <f t="shared" si="4"/>
         <v>0.94444444444444109</v>
@@ -5649,7 +5640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="275" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C275" s="1">
         <f t="shared" si="4"/>
         <v>0.9479166666666633</v>
@@ -5659,7 +5650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="276" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C276" s="1">
         <f t="shared" si="4"/>
         <v>0.95138888888888551</v>
@@ -5669,7 +5660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="277" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C277" s="1">
         <f t="shared" si="4"/>
         <v>0.95486111111110772</v>
@@ -5679,7 +5670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="278" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C278" s="1">
         <f t="shared" si="4"/>
         <v>0.95833333333332993</v>
@@ -5689,7 +5680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="279" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C279" s="1">
         <f t="shared" si="4"/>
         <v>0.96180555555555214</v>
@@ -5699,7 +5690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="280" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C280" s="1">
         <f t="shared" si="4"/>
         <v>0.96527777777777435</v>
@@ -5709,7 +5700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="281" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C281" s="1">
         <f t="shared" si="4"/>
         <v>0.96874999999999656</v>
@@ -5719,7 +5710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="282" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C282" s="1">
         <f t="shared" si="4"/>
         <v>0.97222222222221877</v>
@@ -5729,7 +5720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="283" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C283" s="1">
         <f t="shared" si="4"/>
         <v>0.97569444444444098</v>
@@ -5739,7 +5730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="284" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C284" s="1">
         <f t="shared" si="4"/>
         <v>0.97916666666666319</v>
@@ -5749,7 +5740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="285" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C285" s="1">
         <f t="shared" si="4"/>
         <v>0.9826388888888854</v>
@@ -5759,7 +5750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="286" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C286" s="1">
         <f t="shared" si="4"/>
         <v>0.98611111111110761</v>
@@ -5769,7 +5760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="287" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C287" s="1">
         <f t="shared" si="4"/>
         <v>0.98958333333332982</v>
@@ -5779,7 +5770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="288" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C288" s="1">
         <f t="shared" si="4"/>
         <v>0.99305555555555203</v>
@@ -5789,7 +5780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="289" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C289" s="1">
         <f t="shared" si="4"/>
         <v>0.99652777777777424</v>
